--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_6_28.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_6_28.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1026001.431747494</v>
+        <v>1067863.521977151</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>18142616.70954774</v>
+        <v>16659530.99074006</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2060125.517083133</v>
+        <v>606553.2040797169</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6647718.961983774</v>
+        <v>7158666.85048608</v>
       </c>
     </row>
     <row r="11">
@@ -671,7 +673,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G2" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -710,7 +712,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -725,7 +727,7 @@
         <v>14.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>36.97715937730158</v>
+        <v>216.4944575845786</v>
       </c>
     </row>
     <row r="3">
@@ -826,13 +828,13 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
-        <v>174.9399834978613</v>
+        <v>90.30617524481245</v>
       </c>
       <c r="G4" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>87.77334973307141</v>
@@ -862,13 +864,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
-        <v>35.20092700998597</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
         <v>275.6486707394257</v>
@@ -893,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>422.0365747800587</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C5" t="n">
-        <v>433.7610480884109</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D5" t="n">
-        <v>431.5506869772999</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>59.18212589108353</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F5" t="n">
-        <v>23.58875529488432</v>
+        <v>412.8118096077799</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,13 +946,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -962,7 +964,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>404.2032624633431</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="6">
@@ -1063,13 +1065,13 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
-        <v>39.57637241135509</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1105,7 +1107,7 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
-        <v>243.4206519573293</v>
+        <v>82.62483121292118</v>
       </c>
       <c r="U7" t="n">
         <v>275.6486707394257</v>
@@ -1139,10 +1141,10 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>59.59474737021493</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F8" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -1193,10 +1195,10 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>400.806900043077</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X8" t="n">
-        <v>414.9510387864824</v>
+        <v>45.10878876340928</v>
       </c>
       <c r="Y8" t="n">
         <v>404.2032624633431</v>
@@ -1291,7 +1293,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C10" t="n">
-        <v>8.909245336631582</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
         <v>164.2192128704925</v>
@@ -1354,10 +1356,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>81.01098805494614</v>
       </c>
     </row>
     <row r="11">
@@ -1367,10 +1369,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>10.1507312021306</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
         <v>431.5506869772999</v>
@@ -1382,13 +1384,13 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
-        <v>218.1540063919074</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,16 +1420,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
         <v>400.806900043077</v>
@@ -1531,10 +1533,10 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D13" t="n">
-        <v>164.2192128704925</v>
+        <v>141.3509401177976</v>
       </c>
       <c r="E13" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1543,10 +1545,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
-        <v>14.14416275345383</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>157.6489550149833</v>
@@ -1619,7 +1621,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1658,22 +1660,22 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>175.4475408461118</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X14" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y14" t="n">
-        <v>167.3665460298584</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="15">
@@ -1774,16 +1776,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F16" t="n">
-        <v>14.14416275345384</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,7 +1815,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>243.4206519573293</v>
@@ -1822,7 +1824,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V16" t="n">
-        <v>284.0859530482738</v>
+        <v>54.66258501924893</v>
       </c>
       <c r="W16" t="n">
         <v>269.3061403695714</v>
@@ -1847,7 +1849,7 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D17" t="n">
-        <v>431.5506869773011</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E17" t="n">
         <v>429.4369973932878</v>
@@ -1898,7 +1900,7 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U17" t="n">
-        <v>256.6300796561533</v>
+        <v>256.6300796561544</v>
       </c>
       <c r="V17" t="n">
         <v>358.9907805655117</v>
@@ -2011,13 +2013,13 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>21.20364308167788</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
@@ -2068,7 +2070,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y19" t="n">
-        <v>100.7864841659611</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="20">
@@ -2132,7 +2134,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T20" t="n">
-        <v>217.8665548556926</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U20" t="n">
         <v>256.6300796561533</v>
@@ -2239,7 +2241,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C22" t="n">
-        <v>170.8360944016044</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D22" t="n">
         <v>164.2192128704925</v>
@@ -2251,7 +2253,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>24.34318456170731</v>
+        <v>24.34318456170439</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2476,7 +2478,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C25" t="n">
-        <v>8.909245336631582</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D25" t="n">
         <v>164.2192128704925</v>
@@ -2491,10 +2493,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
-        <v>138.5031525665292</v>
+        <v>18.05677735225717</v>
       </c>
       <c r="I25" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
@@ -2542,7 +2544,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="26">
@@ -2758,28 +2760,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U28" t="n">
-        <v>271.3707766894337</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V28" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>269.3061403695714</v>
+        <v>187.5234134555184</v>
       </c>
       <c r="X28" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="29">
@@ -2956,7 +2958,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F31" t="n">
         <v>174.9399834978613</v>
@@ -2965,10 +2967,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,10 +3000,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T31" t="n">
-        <v>45.61239570677294</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U31" t="n">
         <v>275.6486707394257</v>
@@ -3232,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>157.6489550149833</v>
@@ -3244,10 +3246,10 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V34" t="n">
-        <v>122.1591039832982</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W34" t="n">
-        <v>269.3061403695714</v>
+        <v>128.5829343862774</v>
       </c>
       <c r="X34" t="n">
         <v>242.9378371199217</v>
@@ -3439,10 +3441,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>39.88277234054614</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T37" t="n">
         <v>243.4206519573293</v>
@@ -3484,7 +3486,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X37" t="n">
         <v>242.9378371199217</v>
@@ -3664,10 +3666,10 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F40" t="n">
         <v>174.9399834978613</v>
@@ -3706,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>188.6279654955833</v>
+        <v>35.20092700998732</v>
       </c>
       <c r="U40" t="n">
         <v>275.6486707394257</v>
@@ -3737,10 +3739,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D41" t="n">
         <v>431.5506869772999</v>
@@ -3749,7 +3751,7 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
-        <v>423.5887552948843</v>
+        <v>12.11553319608741</v>
       </c>
       <c r="G41" t="n">
         <v>397.3838530629687</v>
@@ -3758,7 +3760,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3794,19 +3796,19 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U41" t="n">
-        <v>94.40718963228937</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V41" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="42">
@@ -3901,7 +3903,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D43" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>168.0604237117701</v>
@@ -3910,7 +3912,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>163.9353622244306</v>
+        <v>119.9348501475802</v>
       </c>
       <c r="H43" t="n">
         <v>138.5031525665292</v>
@@ -3943,19 +3945,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V43" t="n">
-        <v>172.6623007436913</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W43" t="n">
         <v>269.3061403695714</v>
@@ -3974,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>10.1507312021306</v>
       </c>
       <c r="C44" t="n">
         <v>433.7610480884109</v>
@@ -3983,19 +3985,19 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>204.7381959573894</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T44" t="n">
         <v>217.8665548556918</v>
@@ -4037,7 +4039,7 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
         <v>414.9510387864824</v>
@@ -4135,10 +4137,10 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C46" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>168.0604237117701</v>
@@ -4147,13 +4149,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
-        <v>3.13954148002315</v>
+        <v>35.75633396116297</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4304,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2190.493479979994</v>
+        <v>1789.095648603258</v>
       </c>
       <c r="C2" t="n">
-        <v>1752.351007163417</v>
+        <v>1350.953175786681</v>
       </c>
       <c r="D2" t="n">
-        <v>1316.441222337862</v>
+        <v>915.0433909611256</v>
       </c>
       <c r="E2" t="n">
-        <v>882.6664774961569</v>
+        <v>481.2686461194208</v>
       </c>
       <c r="F2" t="n">
-        <v>454.7990479053647</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="G2" t="n">
         <v>53.40121652862856</v>
@@ -4328,28 +4330,28 @@
         <v>53.40121652862856</v>
       </c>
       <c r="J2" t="n">
-        <v>488.6559039815464</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K2" t="n">
-        <v>1149.495958523325</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="L2" t="n">
-        <v>1149.495958523325</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="M2" t="n">
-        <v>1149.495958523325</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="N2" t="n">
-        <v>1149.495958523325</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="O2" t="n">
-        <v>1810.336013065103</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="P2" t="n">
-        <v>1954.407975719776</v>
+        <v>2035.921380153963</v>
       </c>
       <c r="Q2" t="n">
-        <v>2500.906761678371</v>
+        <v>2582.420166112558</v>
       </c>
       <c r="R2" t="n">
         <v>2670.060826431428</v>
@@ -4358,22 +4360,22 @@
         <v>2670.060826431428</v>
       </c>
       <c r="T2" t="n">
-        <v>2670.060826431428</v>
+        <v>2449.993599304466</v>
       </c>
       <c r="U2" t="n">
-        <v>2670.060826431428</v>
+        <v>2449.993599304466</v>
       </c>
       <c r="V2" t="n">
-        <v>2670.060826431428</v>
+        <v>2449.993599304466</v>
       </c>
       <c r="W2" t="n">
-        <v>2669.245775882865</v>
+        <v>2449.178548755904</v>
       </c>
       <c r="X2" t="n">
-        <v>2654.14371650258</v>
+        <v>2434.076489375619</v>
       </c>
       <c r="Y2" t="n">
-        <v>2616.793050464902</v>
+        <v>2215.395219088166</v>
       </c>
     </row>
     <row r="3">
@@ -4410,25 +4412,25 @@
         <v>377.9595414948409</v>
       </c>
       <c r="K3" t="n">
-        <v>397.8892067392439</v>
+        <v>394.9608689238808</v>
       </c>
       <c r="L3" t="n">
-        <v>397.8892067392439</v>
+        <v>1055.800923465659</v>
       </c>
       <c r="M3" t="n">
-        <v>397.8892067392439</v>
+        <v>1055.800923465659</v>
       </c>
       <c r="N3" t="n">
-        <v>397.8892067392439</v>
+        <v>1055.800923465659</v>
       </c>
       <c r="O3" t="n">
-        <v>397.8892067392439</v>
+        <v>1055.800923465659</v>
       </c>
       <c r="P3" t="n">
-        <v>1058.729261281022</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="Q3" t="n">
-        <v>1599.468199913098</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="R3" t="n">
         <v>1716.640978007438</v>
@@ -4462,22 +4464,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1132.45937714051</v>
+        <v>741.4772326516122</v>
       </c>
       <c r="C4" t="n">
-        <v>959.897665623735</v>
+        <v>568.9155211348371</v>
       </c>
       <c r="D4" t="n">
-        <v>794.0196728252577</v>
+        <v>403.0375283363599</v>
       </c>
       <c r="E4" t="n">
-        <v>624.2616690759949</v>
+        <v>233.2795245870971</v>
       </c>
       <c r="F4" t="n">
-        <v>447.554615037751</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="G4" t="n">
-        <v>281.9633400635787</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="H4" t="n">
         <v>142.0611657539532</v>
@@ -4498,7 +4500,7 @@
         <v>1292.433105213328</v>
       </c>
       <c r="N4" t="n">
-        <v>1734.691908370972</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O4" t="n">
         <v>2154.361157596754</v>
@@ -4510,28 +4512,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R4" t="n">
-        <v>2670.060826431428</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S4" t="n">
-        <v>2670.060826431428</v>
+        <v>2489.401636434796</v>
       </c>
       <c r="T4" t="n">
-        <v>2634.504334502149</v>
+        <v>2243.522190013251</v>
       </c>
       <c r="U4" t="n">
-        <v>2356.071333755254</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V4" t="n">
-        <v>2069.115825625685</v>
+        <v>1678.133681136787</v>
       </c>
       <c r="W4" t="n">
-        <v>1797.089421211977</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X4" t="n">
-        <v>1551.697666545389</v>
+        <v>1160.715522056491</v>
       </c>
       <c r="Y4" t="n">
-        <v>1324.277995859497</v>
+        <v>933.2958513705994</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1011.477214236518</v>
+        <v>1256.616618691218</v>
       </c>
       <c r="C5" t="n">
-        <v>573.3347414199409</v>
+        <v>1222.514549915045</v>
       </c>
       <c r="D5" t="n">
-        <v>137.4249565943854</v>
+        <v>1190.645169129893</v>
       </c>
       <c r="E5" t="n">
-        <v>77.64503145187676</v>
+        <v>1160.910828328593</v>
       </c>
       <c r="F5" t="n">
-        <v>53.81800590148855</v>
+        <v>743.9292024621484</v>
       </c>
       <c r="G5" t="n">
-        <v>53.81800590148855</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="H5" t="n">
-        <v>53.81800590148855</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I5" t="n">
         <v>53.40121652862856</v>
       </c>
       <c r="J5" t="n">
-        <v>53.40121652862856</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K5" t="n">
-        <v>714.2412710704069</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L5" t="n">
-        <v>1348.380717347871</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="M5" t="n">
-        <v>1348.380717347871</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="N5" t="n">
-        <v>1348.380717347871</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="O5" t="n">
-        <v>2009.22077188965</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P5" t="n">
-        <v>2670.060826431428</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q5" t="n">
-        <v>2670.060826431428</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R5" t="n">
         <v>2670.060826431428</v>
       </c>
       <c r="S5" t="n">
-        <v>2670.060826431428</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T5" t="n">
-        <v>2670.060826431428</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U5" t="n">
-        <v>2670.060826431428</v>
+        <v>2107.11942280532</v>
       </c>
       <c r="V5" t="n">
-        <v>2670.060826431428</v>
+        <v>2107.11942280532</v>
       </c>
       <c r="W5" t="n">
-        <v>2265.205371842461</v>
+        <v>1702.263968216353</v>
       </c>
       <c r="X5" t="n">
-        <v>1846.062908421772</v>
+        <v>1283.121504795664</v>
       </c>
       <c r="Y5" t="n">
-        <v>1437.776784721425</v>
+        <v>1278.875785135721</v>
       </c>
     </row>
     <row r="6">
@@ -4641,28 +4643,28 @@
         <v>53.40121652862856</v>
       </c>
       <c r="I6" t="n">
-        <v>79.46488968908616</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J6" t="n">
-        <v>79.46488968908616</v>
+        <v>377.9595414948409</v>
       </c>
       <c r="K6" t="n">
-        <v>79.46488968908616</v>
+        <v>1038.799596036619</v>
       </c>
       <c r="L6" t="n">
-        <v>79.46488968908616</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M6" t="n">
-        <v>277.7880908295411</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N6" t="n">
-        <v>938.6281453713194</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O6" t="n">
-        <v>1599.468199913098</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P6" t="n">
-        <v>1599.468199913098</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q6" t="n">
         <v>1599.468199913098</v>
@@ -4699,22 +4701,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>741.4772326516127</v>
+        <v>903.8972536055599</v>
       </c>
       <c r="C7" t="n">
-        <v>568.9155211348376</v>
+        <v>731.3355420887848</v>
       </c>
       <c r="D7" t="n">
-        <v>403.0375283363603</v>
+        <v>565.4575492903075</v>
       </c>
       <c r="E7" t="n">
-        <v>233.2795245870976</v>
+        <v>395.6995455410447</v>
       </c>
       <c r="F7" t="n">
-        <v>193.303390838254</v>
+        <v>218.9924915028009</v>
       </c>
       <c r="G7" t="n">
-        <v>193.303390838254</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H7" t="n">
         <v>53.40121652862856</v>
@@ -4750,25 +4752,25 @@
         <v>2648.6430051368</v>
       </c>
       <c r="S7" t="n">
-        <v>2489.401636434797</v>
+        <v>2489.401636434796</v>
       </c>
       <c r="T7" t="n">
-        <v>2243.522190013252</v>
+        <v>2405.942210967199</v>
       </c>
       <c r="U7" t="n">
-        <v>1965.089189266357</v>
+        <v>2127.509210220304</v>
       </c>
       <c r="V7" t="n">
-        <v>1678.133681136788</v>
+        <v>1840.553702090735</v>
       </c>
       <c r="W7" t="n">
-        <v>1406.107276723079</v>
+        <v>1568.527297677026</v>
       </c>
       <c r="X7" t="n">
-        <v>1160.715522056492</v>
+        <v>1323.135543010439</v>
       </c>
       <c r="Y7" t="n">
-        <v>933.2958513705998</v>
+        <v>1095.715872324547</v>
       </c>
     </row>
     <row r="8">
@@ -4778,16 +4780,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1011.477214236518</v>
+        <v>1789.095648603258</v>
       </c>
       <c r="C8" t="n">
-        <v>573.3347414199409</v>
+        <v>1350.953175786681</v>
       </c>
       <c r="D8" t="n">
-        <v>137.4249565943854</v>
+        <v>915.0433909611256</v>
       </c>
       <c r="E8" t="n">
-        <v>77.22824207901677</v>
+        <v>481.2686461194208</v>
       </c>
       <c r="F8" t="n">
         <v>53.40121652862856</v>
@@ -4802,28 +4804,28 @@
         <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>141.0418768474983</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K8" t="n">
-        <v>801.8819313892766</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="L8" t="n">
-        <v>1462.721985931055</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="M8" t="n">
-        <v>1462.721985931055</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="N8" t="n">
-        <v>1462.721985931055</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="O8" t="n">
-        <v>1462.721985931055</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P8" t="n">
-        <v>2123.562040472833</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q8" t="n">
-        <v>2670.060826431428</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R8" t="n">
         <v>2670.060826431428</v>
@@ -4841,13 +4843,13 @@
         <v>2670.060826431428</v>
       </c>
       <c r="W8" t="n">
-        <v>2265.205371842461</v>
+        <v>2669.245775882865</v>
       </c>
       <c r="X8" t="n">
-        <v>1846.062908421772</v>
+        <v>2623.681342788512</v>
       </c>
       <c r="Y8" t="n">
-        <v>1437.776784721425</v>
+        <v>2215.395219088166</v>
       </c>
     </row>
     <row r="9">
@@ -4878,28 +4880,28 @@
         <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>79.46488968908616</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J9" t="n">
-        <v>404.0232146552985</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K9" t="n">
-        <v>404.0232146552985</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="L9" t="n">
-        <v>404.0232146552985</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="M9" t="n">
-        <v>404.0232146552985</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="N9" t="n">
-        <v>1064.863269197077</v>
+        <v>938.6281453713194</v>
       </c>
       <c r="O9" t="n">
-        <v>1064.863269197077</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="P9" t="n">
-        <v>1064.863269197077</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="Q9" t="n">
         <v>1599.468199913098</v>
@@ -4936,43 +4938,43 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>968.896903337504</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C10" t="n">
-        <v>959.8976656237347</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D10" t="n">
-        <v>794.0196728252574</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E10" t="n">
-        <v>624.2616690759947</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F10" t="n">
-        <v>447.5546150377509</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G10" t="n">
-        <v>281.9633400635786</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H10" t="n">
-        <v>142.0611657539531</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I10" t="n">
-        <v>53.40121652862846</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>139.9809016933183</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>414.7393562644539</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>832.949238032415</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
         <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>1734.691908370972</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
         <v>2154.361157596754</v>
@@ -4987,25 +4989,25 @@
         <v>2648.6430051368</v>
       </c>
       <c r="S10" t="n">
-        <v>2489.401636434796</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T10" t="n">
-        <v>2243.522190013251</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="U10" t="n">
         <v>1965.089189266357</v>
       </c>
       <c r="V10" t="n">
-        <v>1678.133681136787</v>
+        <v>1678.133681136788</v>
       </c>
       <c r="W10" t="n">
         <v>1406.107276723079</v>
       </c>
       <c r="X10" t="n">
-        <v>1160.715522056491</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="Y10" t="n">
-        <v>1160.715522056491</v>
+        <v>1324.277995859497</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1574.035941128878</v>
+        <v>2520.409306699863</v>
       </c>
       <c r="C11" t="n">
-        <v>1574.035941128878</v>
+        <v>2082.266833883286</v>
       </c>
       <c r="D11" t="n">
-        <v>1138.126156303323</v>
+        <v>1646.357049057731</v>
       </c>
       <c r="E11" t="n">
-        <v>704.3514114616178</v>
+        <v>1212.582304216026</v>
       </c>
       <c r="F11" t="n">
-        <v>276.4839818708255</v>
+        <v>784.7148746252335</v>
       </c>
       <c r="G11" t="n">
-        <v>56.12639965677762</v>
+        <v>383.3170432484974</v>
       </c>
       <c r="H11" t="n">
-        <v>56.12639965677762</v>
+        <v>94.18688869171365</v>
       </c>
       <c r="I11" t="n">
-        <v>56.12639965677762</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="J11" t="n">
-        <v>56.12639965677762</v>
+        <v>529.0247867717716</v>
       </c>
       <c r="K11" t="n">
-        <v>701.5387406219835</v>
+        <v>1363.37507872995</v>
       </c>
       <c r="L11" t="n">
-        <v>701.5387406219835</v>
+        <v>1363.37507872995</v>
       </c>
       <c r="M11" t="n">
-        <v>701.5387406219835</v>
+        <v>1363.37507872995</v>
       </c>
       <c r="N11" t="n">
-        <v>701.5387406219835</v>
+        <v>2164.362573827329</v>
       </c>
       <c r="O11" t="n">
-        <v>1396.102936374607</v>
+        <v>3144.542240397635</v>
       </c>
       <c r="P11" t="n">
-        <v>2090.667132127229</v>
+        <v>3972.852115231031</v>
       </c>
       <c r="Q11" t="n">
-        <v>2637.165918085824</v>
+        <v>4519.350901189626</v>
       </c>
       <c r="R11" t="n">
-        <v>2806.319982838881</v>
+        <v>4688.504965942682</v>
       </c>
       <c r="S11" t="n">
-        <v>2806.319982838881</v>
+        <v>4604.853092126519</v>
       </c>
       <c r="T11" t="n">
-        <v>2806.319982838881</v>
+        <v>4384.785864999558</v>
       </c>
       <c r="U11" t="n">
-        <v>2806.319982838881</v>
+        <v>4125.563562316574</v>
       </c>
       <c r="V11" t="n">
-        <v>2806.319982838881</v>
+        <v>3762.946612250401</v>
       </c>
       <c r="W11" t="n">
-        <v>2401.464528249914</v>
+        <v>3358.091157661434</v>
       </c>
       <c r="X11" t="n">
-        <v>1982.322064829225</v>
+        <v>2938.948694240745</v>
       </c>
       <c r="Y11" t="n">
-        <v>1574.035941128878</v>
+        <v>2530.662570540399</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>562.2981446480704</v>
+        <v>599.9418443101464</v>
       </c>
       <c r="C12" t="n">
-        <v>455.8416834847127</v>
+        <v>493.4853831467887</v>
       </c>
       <c r="D12" t="n">
-        <v>360.751394631266</v>
+        <v>398.395094293342</v>
       </c>
       <c r="E12" t="n">
-        <v>266.6309799582197</v>
+        <v>304.2746796202957</v>
       </c>
       <c r="F12" t="n">
-        <v>183.2471415743813</v>
+        <v>220.8908412364573</v>
       </c>
       <c r="G12" t="n">
-        <v>97.86205184056516</v>
+        <v>135.5057515026412</v>
       </c>
       <c r="H12" t="n">
-        <v>56.12639965677762</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="I12" t="n">
-        <v>56.12639965677762</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="J12" t="n">
-        <v>56.12639965677762</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="K12" t="n">
-        <v>736.8599197271549</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="L12" t="n">
-        <v>1024.801965382963</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="M12" t="n">
-        <v>1024.801965382963</v>
+        <v>1254.175078389668</v>
       </c>
       <c r="N12" t="n">
-        <v>1024.801965382963</v>
+        <v>1757.009860797662</v>
       </c>
       <c r="O12" t="n">
-        <v>1024.801965382963</v>
+        <v>1757.009860797662</v>
       </c>
       <c r="P12" t="n">
-        <v>1719.366161135586</v>
+        <v>1757.009860797662</v>
       </c>
       <c r="Q12" t="n">
-        <v>1719.366161135586</v>
+        <v>1757.009860797662</v>
       </c>
       <c r="R12" t="n">
-        <v>1719.366161135586</v>
+        <v>1757.009860797662</v>
       </c>
       <c r="S12" t="n">
-        <v>1655.910723583969</v>
+        <v>1693.554423246045</v>
       </c>
       <c r="T12" t="n">
-        <v>1525.732079914571</v>
+        <v>1563.375779576647</v>
       </c>
       <c r="U12" t="n">
-        <v>1349.395532914539</v>
+        <v>1387.039232576615</v>
       </c>
       <c r="V12" t="n">
-        <v>1150.278014976539</v>
+        <v>1187.921714638615</v>
       </c>
       <c r="W12" t="n">
-        <v>964.9552607097328</v>
+        <v>1002.598960371809</v>
       </c>
       <c r="X12" t="n">
-        <v>810.0878249486128</v>
+        <v>847.7315246106888</v>
       </c>
       <c r="Y12" t="n">
-        <v>683.6020457278336</v>
+        <v>721.2457453899095</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>744.2024157797618</v>
+        <v>803.2639367364659</v>
       </c>
       <c r="C13" t="n">
-        <v>571.6407042629868</v>
+        <v>630.7022252196908</v>
       </c>
       <c r="D13" t="n">
-        <v>405.7627114645095</v>
+        <v>487.9234978279761</v>
       </c>
       <c r="E13" t="n">
-        <v>236.0047077152468</v>
+        <v>487.9234978279761</v>
       </c>
       <c r="F13" t="n">
-        <v>236.0047077152468</v>
+        <v>487.9234978279761</v>
       </c>
       <c r="G13" t="n">
-        <v>70.41343274107442</v>
+        <v>322.3322228538038</v>
       </c>
       <c r="H13" t="n">
-        <v>56.12639965677762</v>
+        <v>182.4300485441783</v>
       </c>
       <c r="I13" t="n">
-        <v>56.12639965677762</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="J13" t="n">
-        <v>142.7060848214675</v>
+        <v>180.3497844835435</v>
       </c>
       <c r="K13" t="n">
-        <v>417.4645393926031</v>
+        <v>455.1082390546791</v>
       </c>
       <c r="L13" t="n">
-        <v>835.6744211605641</v>
+        <v>873.3181208226401</v>
       </c>
       <c r="M13" t="n">
-        <v>1295.158288341477</v>
+        <v>1332.801988003553</v>
       </c>
       <c r="N13" t="n">
-        <v>1737.417091499122</v>
+        <v>1775.060791161198</v>
       </c>
       <c r="O13" t="n">
-        <v>2157.086340724903</v>
+        <v>2194.730040386979</v>
       </c>
       <c r="P13" t="n">
-        <v>2504.593234695245</v>
+        <v>2542.236934357321</v>
       </c>
       <c r="Q13" t="n">
-        <v>2672.786009559577</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="R13" t="n">
-        <v>2651.368188264949</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="S13" t="n">
-        <v>2492.126819562946</v>
+        <v>2551.18834051965</v>
       </c>
       <c r="T13" t="n">
-        <v>2246.247373141401</v>
+        <v>2305.308894098105</v>
       </c>
       <c r="U13" t="n">
-        <v>1967.814372394506</v>
+        <v>2026.87589335121</v>
       </c>
       <c r="V13" t="n">
-        <v>1680.858864264937</v>
+        <v>1739.920385221641</v>
       </c>
       <c r="W13" t="n">
-        <v>1408.832459851228</v>
+        <v>1467.893980807932</v>
       </c>
       <c r="X13" t="n">
-        <v>1163.440705184641</v>
+        <v>1222.502226141345</v>
       </c>
       <c r="Y13" t="n">
-        <v>936.021034498749</v>
+        <v>995.0825554554531</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1791.820831731407</v>
+        <v>2230.862362770219</v>
       </c>
       <c r="C14" t="n">
-        <v>1353.67835891483</v>
+        <v>1792.719889953642</v>
       </c>
       <c r="D14" t="n">
-        <v>917.7685740892747</v>
+        <v>1356.810105128087</v>
       </c>
       <c r="E14" t="n">
-        <v>483.9938292475699</v>
+        <v>923.035360286382</v>
       </c>
       <c r="F14" t="n">
-        <v>56.12639965677762</v>
+        <v>495.1679306955898</v>
       </c>
       <c r="G14" t="n">
-        <v>56.12639965677762</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="H14" t="n">
-        <v>56.12639965677762</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="I14" t="n">
-        <v>56.12639965677762</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="J14" t="n">
-        <v>56.12639965677762</v>
+        <v>529.0247867717716</v>
       </c>
       <c r="K14" t="n">
-        <v>750.6905954094007</v>
+        <v>1363.37507872995</v>
       </c>
       <c r="L14" t="n">
-        <v>1445.254791162024</v>
+        <v>1363.37507872995</v>
       </c>
       <c r="M14" t="n">
-        <v>1445.254791162024</v>
+        <v>1363.37507872995</v>
       </c>
       <c r="N14" t="n">
-        <v>1445.254791162024</v>
+        <v>2164.362573827329</v>
       </c>
       <c r="O14" t="n">
-        <v>2139.818986914646</v>
+        <v>3144.542240397635</v>
       </c>
       <c r="P14" t="n">
-        <v>2806.319982838881</v>
+        <v>3972.852115231031</v>
       </c>
       <c r="Q14" t="n">
-        <v>2806.319982838881</v>
+        <v>4519.350901189626</v>
       </c>
       <c r="R14" t="n">
-        <v>2806.319982838881</v>
+        <v>4688.504965942682</v>
       </c>
       <c r="S14" t="n">
-        <v>2806.319982838881</v>
+        <v>4688.504965942682</v>
       </c>
       <c r="T14" t="n">
-        <v>2806.319982838881</v>
+        <v>4511.285227714287</v>
       </c>
       <c r="U14" t="n">
-        <v>2806.319982838881</v>
+        <v>4252.062925031303</v>
       </c>
       <c r="V14" t="n">
-        <v>2806.319982838881</v>
+        <v>3889.44597496513</v>
       </c>
       <c r="W14" t="n">
-        <v>2806.319982838881</v>
+        <v>3484.590520376163</v>
       </c>
       <c r="X14" t="n">
-        <v>2387.177519418192</v>
+        <v>3065.448056955473</v>
       </c>
       <c r="Y14" t="n">
-        <v>2218.120402216315</v>
+        <v>2657.161933255127</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>562.2981446480704</v>
+        <v>599.9418443101464</v>
       </c>
       <c r="C15" t="n">
-        <v>455.8416834847127</v>
+        <v>493.4853831467887</v>
       </c>
       <c r="D15" t="n">
-        <v>360.751394631266</v>
+        <v>398.395094293342</v>
       </c>
       <c r="E15" t="n">
-        <v>266.6309799582197</v>
+        <v>304.2746796202957</v>
       </c>
       <c r="F15" t="n">
-        <v>183.2471415743813</v>
+        <v>220.8908412364573</v>
       </c>
       <c r="G15" t="n">
-        <v>97.86205184056516</v>
+        <v>135.5057515026412</v>
       </c>
       <c r="H15" t="n">
-        <v>56.12639965677762</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="I15" t="n">
-        <v>82.19007281723522</v>
+        <v>119.8337724793113</v>
       </c>
       <c r="J15" t="n">
-        <v>406.7483977834476</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="K15" t="n">
-        <v>1061.454444409171</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="L15" t="n">
-        <v>1061.454444409171</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="M15" t="n">
-        <v>1061.454444409171</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="N15" t="n">
-        <v>1061.454444409171</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="O15" t="n">
-        <v>1061.454444409171</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="P15" t="n">
-        <v>1061.454444409171</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="Q15" t="n">
-        <v>1602.193383041247</v>
+        <v>1639.837082703323</v>
       </c>
       <c r="R15" t="n">
-        <v>1719.366161135586</v>
+        <v>1757.009860797662</v>
       </c>
       <c r="S15" t="n">
-        <v>1655.910723583969</v>
+        <v>1693.554423246045</v>
       </c>
       <c r="T15" t="n">
-        <v>1525.732079914571</v>
+        <v>1563.375779576647</v>
       </c>
       <c r="U15" t="n">
-        <v>1349.395532914539</v>
+        <v>1387.039232576615</v>
       </c>
       <c r="V15" t="n">
-        <v>1150.278014976539</v>
+        <v>1187.921714638615</v>
       </c>
       <c r="W15" t="n">
-        <v>964.9552607097328</v>
+        <v>1002.598960371809</v>
       </c>
       <c r="X15" t="n">
-        <v>810.0878249486128</v>
+        <v>847.7315246106888</v>
       </c>
       <c r="Y15" t="n">
-        <v>683.6020457278336</v>
+        <v>721.2457453899095</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>744.2024157797618</v>
+        <v>1172.828259930735</v>
       </c>
       <c r="C16" t="n">
-        <v>571.6407042629868</v>
+        <v>1000.26654841396</v>
       </c>
       <c r="D16" t="n">
-        <v>405.7627114645095</v>
+        <v>834.3885556154826</v>
       </c>
       <c r="E16" t="n">
-        <v>236.0047077152468</v>
+        <v>664.6305518662199</v>
       </c>
       <c r="F16" t="n">
-        <v>221.7176746309499</v>
+        <v>487.9234978279761</v>
       </c>
       <c r="G16" t="n">
-        <v>56.12639965677762</v>
+        <v>322.3322228538038</v>
       </c>
       <c r="H16" t="n">
-        <v>56.12639965677762</v>
+        <v>182.4300485441783</v>
       </c>
       <c r="I16" t="n">
-        <v>56.12639965677762</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="J16" t="n">
-        <v>142.7060848214675</v>
+        <v>180.3497844835435</v>
       </c>
       <c r="K16" t="n">
-        <v>417.4645393926031</v>
+        <v>455.1082390546791</v>
       </c>
       <c r="L16" t="n">
-        <v>835.6744211605641</v>
+        <v>873.3181208226401</v>
       </c>
       <c r="M16" t="n">
-        <v>1295.158288341477</v>
+        <v>1332.801988003553</v>
       </c>
       <c r="N16" t="n">
-        <v>1737.417091499122</v>
+        <v>1775.060791161198</v>
       </c>
       <c r="O16" t="n">
-        <v>2157.086340724903</v>
+        <v>2194.730040386979</v>
       </c>
       <c r="P16" t="n">
-        <v>2504.593234695245</v>
+        <v>2542.236934357321</v>
       </c>
       <c r="Q16" t="n">
-        <v>2672.786009559577</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="R16" t="n">
-        <v>2651.368188264949</v>
+        <v>2689.011887927025</v>
       </c>
       <c r="S16" t="n">
-        <v>2492.126819562946</v>
+        <v>2689.011887927025</v>
       </c>
       <c r="T16" t="n">
-        <v>2246.247373141401</v>
+        <v>2443.132441505481</v>
       </c>
       <c r="U16" t="n">
-        <v>1967.814372394506</v>
+        <v>2164.699440758586</v>
       </c>
       <c r="V16" t="n">
-        <v>1680.858864264937</v>
+        <v>2109.48470841591</v>
       </c>
       <c r="W16" t="n">
-        <v>1408.832459851228</v>
+        <v>1837.458304002201</v>
       </c>
       <c r="X16" t="n">
-        <v>1163.440705184641</v>
+        <v>1592.066549335614</v>
       </c>
       <c r="Y16" t="n">
-        <v>936.021034498749</v>
+        <v>1364.646878649722</v>
       </c>
     </row>
     <row r="17">
@@ -5489,10 +5491,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C17" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D17" t="n">
         <v>1654.847790009657</v>
@@ -5513,28 +5515,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J17" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K17" t="n">
-        <v>1371.865819681875</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L17" t="n">
-        <v>1371.865819681875</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="M17" t="n">
-        <v>1463.168637987181</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="N17" t="n">
-        <v>2588.899621423628</v>
+        <v>3137.402081918264</v>
       </c>
       <c r="O17" t="n">
-        <v>3569.079287993934</v>
+        <v>3738.23335274699</v>
       </c>
       <c r="P17" t="n">
-        <v>4397.38916282733</v>
+        <v>4566.543227580387</v>
       </c>
       <c r="Q17" t="n">
-        <v>4943.887948785925</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R17" t="n">
         <v>5113.042013538981</v>
@@ -5546,19 +5548,19 @@
         <v>4809.322912595857</v>
       </c>
       <c r="U17" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V17" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W17" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X17" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y17" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="18">
@@ -5647,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>915.9519976190925</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C19" t="n">
-        <v>743.3902861023174</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D19" t="n">
-        <v>577.5122933038401</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E19" t="n">
-        <v>407.7542895545774</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F19" t="n">
-        <v>407.7542895545774</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G19" t="n">
-        <v>242.1630145804051</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H19" t="n">
         <v>102.2608402707796</v>
@@ -5695,28 +5697,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R19" t="n">
-        <v>2697.502628878955</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S19" t="n">
-        <v>2538.261260176952</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T19" t="n">
-        <v>2292.381813755407</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U19" t="n">
-        <v>2013.948813008512</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V19" t="n">
-        <v>1726.993304878942</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W19" t="n">
-        <v>1454.966900465234</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X19" t="n">
-        <v>1209.575145798646</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y19" t="n">
-        <v>1107.77061633808</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="20">
@@ -5738,46 +5740,46 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G20" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H20" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I20" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J20" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K20" t="n">
-        <v>1371.865819681875</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L20" t="n">
-        <v>2446.925785934734</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="M20" t="n">
-        <v>2588.899621423628</v>
+        <v>3168.718933692368</v>
       </c>
       <c r="N20" t="n">
-        <v>2588.899621423628</v>
+        <v>4294.449917128814</v>
       </c>
       <c r="O20" t="n">
-        <v>3569.079287993934</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="P20" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="Q20" t="n">
-        <v>4943.887948785925</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R20" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S20" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T20" t="n">
         <v>4809.322912595856</v>
@@ -5789,13 +5791,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W20" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X20" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y20" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="21">
@@ -5826,13 +5828,13 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I21" t="n">
-        <v>128.3245134312372</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J21" t="n">
-        <v>452.8828383974496</v>
+        <v>426.819165236992</v>
       </c>
       <c r="K21" t="n">
-        <v>1107.588885023173</v>
+        <v>1107.552685307369</v>
       </c>
       <c r="L21" t="n">
         <v>1107.588885023173</v>
@@ -5887,16 +5889,16 @@
         <v>811.7546776883914</v>
       </c>
       <c r="C22" t="n">
-        <v>639.1929661716193</v>
+        <v>639.1929661716164</v>
       </c>
       <c r="D22" t="n">
-        <v>473.314973373142</v>
+        <v>473.3149733731391</v>
       </c>
       <c r="E22" t="n">
-        <v>303.5569696238793</v>
+        <v>303.5569696238763</v>
       </c>
       <c r="F22" t="n">
-        <v>126.8499155856355</v>
+        <v>126.8499155856325</v>
       </c>
       <c r="G22" t="n">
         <v>102.2608402707796</v>
@@ -5987,28 +5989,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J23" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K23" t="n">
-        <v>1371.865819681875</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L23" t="n">
-        <v>2446.925785934734</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M23" t="n">
-        <v>2588.899621423627</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N23" t="n">
-        <v>2588.899621423627</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O23" t="n">
-        <v>3569.079287993933</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P23" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q23" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R23" t="n">
         <v>5113.04201353898</v>
@@ -6063,31 +6065,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I24" t="n">
-        <v>128.3245134312372</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J24" t="n">
-        <v>452.8828383974496</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K24" t="n">
-        <v>1107.588885023173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L24" t="n">
-        <v>1107.588885023173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="M24" t="n">
-        <v>1107.588885023173</v>
+        <v>1300.985674363279</v>
       </c>
       <c r="N24" t="n">
-        <v>1107.588885023173</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="O24" t="n">
-        <v>1107.588885023173</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="P24" t="n">
-        <v>1107.588885023173</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="Q24" t="n">
-        <v>1648.327823655249</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R24" t="n">
         <v>1765.500601749588</v>
@@ -6121,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1017.756527079655</v>
+        <v>970.9960463903949</v>
       </c>
       <c r="C25" t="n">
-        <v>1008.757289365886</v>
+        <v>798.4343348736198</v>
       </c>
       <c r="D25" t="n">
-        <v>842.8792965674086</v>
+        <v>632.5563420751425</v>
       </c>
       <c r="E25" t="n">
-        <v>673.1212928181459</v>
+        <v>462.7983383258798</v>
       </c>
       <c r="F25" t="n">
-        <v>496.4142387799021</v>
+        <v>286.091284287636</v>
       </c>
       <c r="G25" t="n">
-        <v>330.8229638057298</v>
+        <v>120.5000093134636</v>
       </c>
       <c r="H25" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I25" t="n">
         <v>102.2608402707796</v>
@@ -6169,28 +6171,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R25" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S25" t="n">
-        <v>2538.261260176947</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T25" t="n">
-        <v>2292.381813755403</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U25" t="n">
-        <v>2013.948813008508</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V25" t="n">
-        <v>1726.993304878938</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W25" t="n">
-        <v>1454.96690046523</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X25" t="n">
-        <v>1209.575145798642</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y25" t="n">
-        <v>1209.575145798642</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
     <row r="26">
@@ -6227,19 +6229,19 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K26" t="n">
-        <v>775.0235620688169</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L26" t="n">
-        <v>1850.083528321676</v>
+        <v>1021.77365348828</v>
       </c>
       <c r="M26" t="n">
-        <v>3007.131363532227</v>
+        <v>2178.821488698831</v>
       </c>
       <c r="N26" t="n">
-        <v>4132.862346968674</v>
+        <v>3304.552472135278</v>
       </c>
       <c r="O26" t="n">
-        <v>5113.04201353898</v>
+        <v>4284.732138705584</v>
       </c>
       <c r="P26" t="n">
         <v>5113.04201353898</v>
@@ -6300,31 +6302,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I27" t="n">
-        <v>128.3245134312372</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J27" t="n">
-        <v>452.8828383974496</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K27" t="n">
-        <v>1107.588885023173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L27" t="n">
-        <v>1107.588885023173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="M27" t="n">
-        <v>1107.588885023173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="N27" t="n">
-        <v>1107.588885023173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="O27" t="n">
-        <v>1107.588885023173</v>
+        <v>1116.062450089081</v>
       </c>
       <c r="P27" t="n">
-        <v>1107.588885023173</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="Q27" t="n">
-        <v>1648.327823655249</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R27" t="n">
         <v>1765.500601749588</v>
@@ -6406,25 +6408,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R28" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S28" t="n">
-        <v>2697.502628878951</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T28" t="n">
-        <v>2451.623182457406</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U28" t="n">
-        <v>2177.511286811513</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V28" t="n">
-        <v>1890.555778681944</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="W28" t="n">
-        <v>1618.529374268236</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X28" t="n">
-        <v>1373.137619601648</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y28" t="n">
         <v>1373.137619601648</v>
@@ -6464,25 +6466,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K29" t="n">
-        <v>936.6111322289576</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L29" t="n">
-        <v>2011.671098481817</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M29" t="n">
-        <v>3168.718933692368</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N29" t="n">
-        <v>4294.449917128814</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O29" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P29" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q29" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R29" t="n">
         <v>5113.04201353898</v>
@@ -6537,31 +6539,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I30" t="n">
-        <v>128.3245134312372</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J30" t="n">
-        <v>128.3245134312372</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K30" t="n">
-        <v>128.3245134312372</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L30" t="n">
-        <v>128.3245134312372</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="M30" t="n">
-        <v>414.500552094942</v>
+        <v>531.6733301892817</v>
       </c>
       <c r="N30" t="n">
-        <v>1648.327823655249</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="O30" t="n">
-        <v>1648.327823655249</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="P30" t="n">
-        <v>1648.327823655249</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="Q30" t="n">
-        <v>1648.327823655249</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R30" t="n">
         <v>1765.500601749588</v>
@@ -6595,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1011.560997133398</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C31" t="n">
-        <v>838.9992856166232</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D31" t="n">
-        <v>673.1212928181459</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E31" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F31" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G31" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H31" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I31" t="n">
         <v>102.2608402707796</v>
@@ -6646,25 +6648,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S31" t="n">
-        <v>2559.679081471576</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T31" t="n">
-        <v>2513.605954495037</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U31" t="n">
-        <v>2235.172953748142</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V31" t="n">
-        <v>1948.217445618573</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W31" t="n">
-        <v>1676.191041204865</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X31" t="n">
-        <v>1430.799286538277</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y31" t="n">
-        <v>1203.379615852385</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="32">
@@ -6707,16 +6709,16 @@
         <v>2011.671098481817</v>
       </c>
       <c r="M32" t="n">
-        <v>3168.718933692368</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="N32" t="n">
-        <v>4294.449917128814</v>
+        <v>3137.402081918264</v>
       </c>
       <c r="O32" t="n">
-        <v>5113.042013538981</v>
+        <v>4117.581748488571</v>
       </c>
       <c r="P32" t="n">
-        <v>5113.042013538981</v>
+        <v>4945.891623321967</v>
       </c>
       <c r="Q32" t="n">
         <v>5113.04201353898</v>
@@ -6880,19 +6882,19 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R34" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S34" t="n">
-        <v>2538.261260176947</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T34" t="n">
-        <v>2292.381813755403</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U34" t="n">
-        <v>2013.948813008508</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V34" t="n">
-        <v>1890.555778681944</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W34" t="n">
         <v>1618.529374268236</v>
@@ -6935,28 +6937,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J35" t="n">
-        <v>269.4112304877946</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K35" t="n">
-        <v>1103.761522445973</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L35" t="n">
-        <v>2178.821488698832</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M35" t="n">
-        <v>2178.821488698832</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N35" t="n">
-        <v>3304.552472135279</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O35" t="n">
-        <v>4284.732138705585</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P35" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q35" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R35" t="n">
         <v>5113.04201353898</v>
@@ -7023,13 +7025,13 @@
         <v>102.2608402707796</v>
       </c>
       <c r="M36" t="n">
-        <v>1300.985674363279</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="N36" t="n">
-        <v>1765.500601749588</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="O36" t="n">
-        <v>1765.500601749588</v>
+        <v>1116.062450089081</v>
       </c>
       <c r="P36" t="n">
         <v>1765.500601749588</v>
@@ -7069,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1181.319000882661</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C37" t="n">
-        <v>1008.757289365886</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D37" t="n">
-        <v>842.8792965674086</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E37" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F37" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G37" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H37" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I37" t="n">
         <v>102.2608402707796</v>
@@ -7117,28 +7119,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R37" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S37" t="n">
-        <v>2657.217000252137</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T37" t="n">
-        <v>2411.337553830592</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U37" t="n">
-        <v>2132.904553083697</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V37" t="n">
-        <v>1845.949044954127</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W37" t="n">
-        <v>1845.949044954127</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X37" t="n">
-        <v>1600.55729028754</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y37" t="n">
-        <v>1373.137619601648</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="38">
@@ -7166,37 +7168,37 @@
         <v>391.8077842004232</v>
       </c>
       <c r="H38" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I38" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J38" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K38" t="n">
-        <v>537.5155277236975</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L38" t="n">
-        <v>1286.300469346936</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="M38" t="n">
-        <v>2443.348304557487</v>
+        <v>3168.718933692368</v>
       </c>
       <c r="N38" t="n">
-        <v>3569.079287993934</v>
+        <v>4294.449917128814</v>
       </c>
       <c r="O38" t="n">
-        <v>3569.079287993934</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P38" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q38" t="n">
-        <v>4943.887948785925</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R38" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S38" t="n">
         <v>5029.390139722817</v>
@@ -7248,31 +7250,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I39" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J39" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K39" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L39" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M39" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N39" t="n">
-        <v>1336.088111831086</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O39" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P39" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q39" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R39" t="n">
         <v>1765.500601749588</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>845.683004334921</v>
+        <v>3575.440564248063</v>
       </c>
       <c r="C40" t="n">
-        <v>673.1212928181459</v>
+        <v>3402.878852731288</v>
       </c>
       <c r="D40" t="n">
-        <v>673.1212928181459</v>
+        <v>3237.000859932811</v>
       </c>
       <c r="E40" t="n">
-        <v>673.1212928181459</v>
+        <v>3067.242856183548</v>
       </c>
       <c r="F40" t="n">
-        <v>496.4142387799021</v>
+        <v>2890.535802145304</v>
       </c>
       <c r="G40" t="n">
-        <v>330.8229638057298</v>
+        <v>2724.944527171132</v>
       </c>
       <c r="H40" t="n">
-        <v>190.9207894961043</v>
+        <v>2585.042352861507</v>
       </c>
       <c r="I40" t="n">
-        <v>102.2608402707796</v>
+        <v>2496.382403636182</v>
       </c>
       <c r="J40" t="n">
-        <v>188.8405254354695</v>
+        <v>2582.962088800872</v>
       </c>
       <c r="K40" t="n">
-        <v>463.598980006605</v>
+        <v>2857.720543372007</v>
       </c>
       <c r="L40" t="n">
-        <v>881.8088617745661</v>
+        <v>3275.930425139968</v>
       </c>
       <c r="M40" t="n">
-        <v>1341.292728955479</v>
+        <v>3735.414292320881</v>
       </c>
       <c r="N40" t="n">
-        <v>1783.551532113124</v>
+        <v>4177.673095478525</v>
       </c>
       <c r="O40" t="n">
-        <v>2203.220781338905</v>
+        <v>4597.342344704308</v>
       </c>
       <c r="P40" t="n">
-        <v>2550.727675309247</v>
+        <v>4944.849238674649</v>
       </c>
       <c r="Q40" t="n">
-        <v>2718.920450173579</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R40" t="n">
-        <v>2697.502628878951</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S40" t="n">
-        <v>2538.261260176947</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="T40" t="n">
-        <v>2347.72796169656</v>
+        <v>5077.485521609701</v>
       </c>
       <c r="U40" t="n">
-        <v>2069.294960949665</v>
+        <v>4799.052520862807</v>
       </c>
       <c r="V40" t="n">
-        <v>1782.339452820096</v>
+        <v>4512.097012733238</v>
       </c>
       <c r="W40" t="n">
-        <v>1510.313048406387</v>
+        <v>4240.070608319529</v>
       </c>
       <c r="X40" t="n">
-        <v>1264.9212937398</v>
+        <v>3994.678853652942</v>
       </c>
       <c r="Y40" t="n">
-        <v>1037.501623053908</v>
+        <v>3767.25918296705</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2044.62313422121</v>
+        <v>2104.363000055491</v>
       </c>
       <c r="C41" t="n">
-        <v>2044.62313422121</v>
+        <v>1666.220527238914</v>
       </c>
       <c r="D41" t="n">
-        <v>1608.713349395655</v>
+        <v>1230.310742413359</v>
       </c>
       <c r="E41" t="n">
-        <v>1174.93860455395</v>
+        <v>796.5359975716538</v>
       </c>
       <c r="F41" t="n">
-        <v>747.0711749631575</v>
+        <v>784.2980852523735</v>
       </c>
       <c r="G41" t="n">
-        <v>345.6733435864214</v>
+        <v>382.9002538756374</v>
       </c>
       <c r="H41" t="n">
-        <v>56.54318902963762</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="I41" t="n">
-        <v>56.12639965677762</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="J41" t="n">
-        <v>56.12639965677762</v>
+        <v>529.0247867717716</v>
       </c>
       <c r="K41" t="n">
-        <v>56.12639965677762</v>
+        <v>1363.37507872995</v>
       </c>
       <c r="L41" t="n">
-        <v>750.6905954094007</v>
+        <v>2438.435044982809</v>
       </c>
       <c r="M41" t="n">
-        <v>1445.254791162024</v>
+        <v>2992.672448660725</v>
       </c>
       <c r="N41" t="n">
-        <v>2139.818986914646</v>
+        <v>2992.672448660725</v>
       </c>
       <c r="O41" t="n">
-        <v>2806.319982838881</v>
+        <v>3972.852115231031</v>
       </c>
       <c r="P41" t="n">
-        <v>2806.319982838881</v>
+        <v>3972.852115231031</v>
       </c>
       <c r="Q41" t="n">
-        <v>2806.319982838881</v>
+        <v>4519.350901189626</v>
       </c>
       <c r="R41" t="n">
-        <v>2806.319982838881</v>
+        <v>4688.504965942682</v>
       </c>
       <c r="S41" t="n">
-        <v>2722.668109022718</v>
+        <v>4604.853092126519</v>
       </c>
       <c r="T41" t="n">
-        <v>2502.600881895757</v>
+        <v>4384.785864999558</v>
       </c>
       <c r="U41" t="n">
-        <v>2407.240084287384</v>
+        <v>4125.563562316574</v>
       </c>
       <c r="V41" t="n">
-        <v>2044.62313422121</v>
+        <v>3762.946612250401</v>
       </c>
       <c r="W41" t="n">
-        <v>2044.62313422121</v>
+        <v>3358.091157661434</v>
       </c>
       <c r="X41" t="n">
-        <v>2044.62313422121</v>
+        <v>2938.948694240745</v>
       </c>
       <c r="Y41" t="n">
-        <v>2044.62313422121</v>
+        <v>2530.662570540399</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>562.2981446480704</v>
+        <v>599.9418443101464</v>
       </c>
       <c r="C42" t="n">
-        <v>455.8416834847127</v>
+        <v>493.4853831467887</v>
       </c>
       <c r="D42" t="n">
-        <v>360.751394631266</v>
+        <v>398.395094293342</v>
       </c>
       <c r="E42" t="n">
-        <v>266.6309799582197</v>
+        <v>304.2746796202957</v>
       </c>
       <c r="F42" t="n">
-        <v>183.2471415743813</v>
+        <v>220.8908412364573</v>
       </c>
       <c r="G42" t="n">
-        <v>97.86205184056516</v>
+        <v>135.5057515026412</v>
       </c>
       <c r="H42" t="n">
-        <v>56.12639965677762</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="I42" t="n">
-        <v>56.12639965677762</v>
+        <v>119.8337724793113</v>
       </c>
       <c r="J42" t="n">
-        <v>56.12639965677762</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="K42" t="n">
-        <v>56.12639965677762</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="L42" t="n">
-        <v>56.12639965677762</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="M42" t="n">
-        <v>56.12639965677762</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="N42" t="n">
-        <v>330.2377696303402</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="O42" t="n">
-        <v>1024.801965382963</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="P42" t="n">
-        <v>1719.366161135586</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="Q42" t="n">
-        <v>1719.366161135586</v>
+        <v>1639.837082703323</v>
       </c>
       <c r="R42" t="n">
-        <v>1719.366161135586</v>
+        <v>1757.009860797662</v>
       </c>
       <c r="S42" t="n">
-        <v>1655.910723583969</v>
+        <v>1693.554423246045</v>
       </c>
       <c r="T42" t="n">
-        <v>1525.732079914571</v>
+        <v>1563.375779576647</v>
       </c>
       <c r="U42" t="n">
-        <v>1349.395532914539</v>
+        <v>1387.039232576615</v>
       </c>
       <c r="V42" t="n">
-        <v>1150.278014976539</v>
+        <v>1187.921714638615</v>
       </c>
       <c r="W42" t="n">
-        <v>964.9552607097328</v>
+        <v>1002.598960371809</v>
       </c>
       <c r="X42" t="n">
-        <v>810.0878249486128</v>
+        <v>847.7315246106888</v>
       </c>
       <c r="Y42" t="n">
-        <v>683.6020457278336</v>
+        <v>721.2457453899095</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1135.184560268659</v>
+        <v>962.5053054384693</v>
       </c>
       <c r="C43" t="n">
-        <v>962.6228487518839</v>
+        <v>789.9435939216943</v>
       </c>
       <c r="D43" t="n">
-        <v>796.7448559534066</v>
+        <v>789.9435939216943</v>
       </c>
       <c r="E43" t="n">
-        <v>626.9868522041439</v>
+        <v>620.1855901724316</v>
       </c>
       <c r="F43" t="n">
-        <v>450.2797981659001</v>
+        <v>443.4785361341878</v>
       </c>
       <c r="G43" t="n">
-        <v>284.6885231917278</v>
+        <v>322.3322228538038</v>
       </c>
       <c r="H43" t="n">
-        <v>144.7863488821023</v>
+        <v>182.4300485441783</v>
       </c>
       <c r="I43" t="n">
-        <v>56.12639965677762</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="J43" t="n">
-        <v>142.7060848214675</v>
+        <v>180.3497844835435</v>
       </c>
       <c r="K43" t="n">
-        <v>417.4645393926031</v>
+        <v>455.1082390546791</v>
       </c>
       <c r="L43" t="n">
-        <v>835.6744211605641</v>
+        <v>873.3181208226401</v>
       </c>
       <c r="M43" t="n">
-        <v>1295.158288341477</v>
+        <v>1332.801988003553</v>
       </c>
       <c r="N43" t="n">
-        <v>1737.417091499122</v>
+        <v>1775.060791161198</v>
       </c>
       <c r="O43" t="n">
-        <v>2157.086340724903</v>
+        <v>2194.730040386979</v>
       </c>
       <c r="P43" t="n">
-        <v>2504.593234695245</v>
+        <v>2542.236934357321</v>
       </c>
       <c r="Q43" t="n">
-        <v>2672.786009559577</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="R43" t="n">
-        <v>2651.368188264949</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="S43" t="n">
-        <v>2492.126819562946</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="T43" t="n">
-        <v>2246.247373141401</v>
+        <v>2464.550262800109</v>
       </c>
       <c r="U43" t="n">
-        <v>2246.247373141401</v>
+        <v>2186.117262053214</v>
       </c>
       <c r="V43" t="n">
-        <v>2071.841008753834</v>
+        <v>1899.161753923644</v>
       </c>
       <c r="W43" t="n">
-        <v>1799.814604340125</v>
+        <v>1627.135349509936</v>
       </c>
       <c r="X43" t="n">
-        <v>1554.422849673538</v>
+        <v>1381.743594843348</v>
       </c>
       <c r="Y43" t="n">
-        <v>1327.003178987646</v>
+        <v>1154.323924157457</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1136.984915841727</v>
+        <v>2520.409306699863</v>
       </c>
       <c r="C44" t="n">
-        <v>698.8424430251507</v>
+        <v>2082.266833883286</v>
       </c>
       <c r="D44" t="n">
-        <v>262.9326581995952</v>
+        <v>1646.357049057731</v>
       </c>
       <c r="E44" t="n">
-        <v>262.9326581995952</v>
+        <v>1212.582304216026</v>
       </c>
       <c r="F44" t="n">
-        <v>262.9326581995952</v>
+        <v>784.7148746252335</v>
       </c>
       <c r="G44" t="n">
-        <v>56.12639965677762</v>
+        <v>383.3170432484974</v>
       </c>
       <c r="H44" t="n">
-        <v>56.12639965677762</v>
+        <v>94.18688869171365</v>
       </c>
       <c r="I44" t="n">
-        <v>56.12639965677762</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="J44" t="n">
-        <v>56.12639965677762</v>
+        <v>529.0247867717716</v>
       </c>
       <c r="K44" t="n">
-        <v>750.6905954094007</v>
+        <v>529.0247867717716</v>
       </c>
       <c r="L44" t="n">
-        <v>750.6905954094007</v>
+        <v>529.0247867717716</v>
       </c>
       <c r="M44" t="n">
-        <v>1445.254791162024</v>
+        <v>1038.631590390881</v>
       </c>
       <c r="N44" t="n">
-        <v>2139.818986914646</v>
+        <v>2164.362573827329</v>
       </c>
       <c r="O44" t="n">
-        <v>2139.818986914646</v>
+        <v>3144.542240397635</v>
       </c>
       <c r="P44" t="n">
-        <v>2806.319982838881</v>
+        <v>3972.852115231031</v>
       </c>
       <c r="Q44" t="n">
-        <v>2806.319982838881</v>
+        <v>4519.350901189626</v>
       </c>
       <c r="R44" t="n">
-        <v>2806.319982838881</v>
+        <v>4688.504965942682</v>
       </c>
       <c r="S44" t="n">
-        <v>2806.319982838881</v>
+        <v>4604.853092126519</v>
       </c>
       <c r="T44" t="n">
-        <v>2586.25275571192</v>
+        <v>4384.785864999558</v>
       </c>
       <c r="U44" t="n">
-        <v>2327.030453028937</v>
+        <v>4125.563562316574</v>
       </c>
       <c r="V44" t="n">
-        <v>1964.413502962763</v>
+        <v>3762.946612250401</v>
       </c>
       <c r="W44" t="n">
-        <v>1964.413502962763</v>
+        <v>3358.091157661434</v>
       </c>
       <c r="X44" t="n">
-        <v>1545.271039542074</v>
+        <v>2938.948694240745</v>
       </c>
       <c r="Y44" t="n">
-        <v>1136.984915841727</v>
+        <v>2530.662570540399</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>1649.251966351365</v>
+        <v>599.9418443101464</v>
       </c>
       <c r="C45" t="n">
-        <v>1542.795505188007</v>
+        <v>493.4853831467887</v>
       </c>
       <c r="D45" t="n">
-        <v>1447.705216334561</v>
+        <v>398.395094293342</v>
       </c>
       <c r="E45" t="n">
-        <v>1353.584801661514</v>
+        <v>304.2746796202957</v>
       </c>
       <c r="F45" t="n">
-        <v>1270.200963277676</v>
+        <v>220.8908412364573</v>
       </c>
       <c r="G45" t="n">
-        <v>1184.81587354386</v>
+        <v>135.5057515026412</v>
       </c>
       <c r="H45" t="n">
-        <v>1143.080221360072</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="I45" t="n">
-        <v>1169.14389452053</v>
+        <v>119.8337724793113</v>
       </c>
       <c r="J45" t="n">
-        <v>1493.702219486742</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="K45" t="n">
-        <v>2148.408266112466</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="L45" t="n">
-        <v>2148.408266112466</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="M45" t="n">
-        <v>2148.408266112466</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="N45" t="n">
-        <v>2148.408266112466</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="O45" t="n">
-        <v>2148.408266112466</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="P45" t="n">
-        <v>2148.408266112466</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="Q45" t="n">
-        <v>2689.147204744541</v>
+        <v>1639.837082703323</v>
       </c>
       <c r="R45" t="n">
-        <v>2806.319982838881</v>
+        <v>1757.009860797662</v>
       </c>
       <c r="S45" t="n">
-        <v>2742.864545287264</v>
+        <v>1693.554423246045</v>
       </c>
       <c r="T45" t="n">
-        <v>2612.685901617866</v>
+        <v>1563.375779576647</v>
       </c>
       <c r="U45" t="n">
-        <v>2436.349354617834</v>
+        <v>1387.039232576615</v>
       </c>
       <c r="V45" t="n">
-        <v>2237.231836679834</v>
+        <v>1187.921714638615</v>
       </c>
       <c r="W45" t="n">
-        <v>2051.909082413028</v>
+        <v>1002.598960371809</v>
       </c>
       <c r="X45" t="n">
-        <v>1897.041646651908</v>
+        <v>847.7315246106888</v>
       </c>
       <c r="Y45" t="n">
-        <v>1770.555867431128</v>
+        <v>721.2457453899095</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>877.7363890590655</v>
+        <v>781.8461154418378</v>
       </c>
       <c r="C46" t="n">
-        <v>705.1746775422904</v>
+        <v>781.8461154418378</v>
       </c>
       <c r="D46" t="n">
-        <v>539.2966847438131</v>
+        <v>781.8461154418378</v>
       </c>
       <c r="E46" t="n">
-        <v>369.5386809945504</v>
+        <v>612.088111692575</v>
       </c>
       <c r="F46" t="n">
-        <v>192.8316269563066</v>
+        <v>435.3810576543312</v>
       </c>
       <c r="G46" t="n">
-        <v>192.8316269563066</v>
+        <v>269.7897826801589</v>
       </c>
       <c r="H46" t="n">
-        <v>192.8316269563066</v>
+        <v>129.8876083705334</v>
       </c>
       <c r="I46" t="n">
-        <v>189.6603729360812</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="J46" t="n">
-        <v>276.240058100771</v>
+        <v>180.3497844835435</v>
       </c>
       <c r="K46" t="n">
-        <v>550.9985126719066</v>
+        <v>455.1082390546791</v>
       </c>
       <c r="L46" t="n">
-        <v>969.2083944398677</v>
+        <v>873.3181208226401</v>
       </c>
       <c r="M46" t="n">
-        <v>1428.692261620781</v>
+        <v>1332.801988003553</v>
       </c>
       <c r="N46" t="n">
-        <v>1870.951064778425</v>
+        <v>1775.060791161198</v>
       </c>
       <c r="O46" t="n">
-        <v>2290.620314004207</v>
+        <v>2194.730040386979</v>
       </c>
       <c r="P46" t="n">
-        <v>2638.127207974549</v>
+        <v>2542.236934357321</v>
       </c>
       <c r="Q46" t="n">
-        <v>2806.319982838881</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="R46" t="n">
-        <v>2784.902161544253</v>
+        <v>2689.011887927025</v>
       </c>
       <c r="S46" t="n">
-        <v>2625.66079284225</v>
+        <v>2529.770519225022</v>
       </c>
       <c r="T46" t="n">
-        <v>2379.781346420705</v>
+        <v>2283.891072803477</v>
       </c>
       <c r="U46" t="n">
-        <v>2101.34834567381</v>
+        <v>2005.458072056582</v>
       </c>
       <c r="V46" t="n">
-        <v>1814.39283754424</v>
+        <v>1718.502563927013</v>
       </c>
       <c r="W46" t="n">
-        <v>1542.366433130532</v>
+        <v>1446.476159513304</v>
       </c>
       <c r="X46" t="n">
-        <v>1296.974678463944</v>
+        <v>1201.084404846717</v>
       </c>
       <c r="Y46" t="n">
-        <v>1069.555007778053</v>
+        <v>973.664734160825</v>
       </c>
     </row>
   </sheetData>
@@ -7976,7 +7978,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>667.515206607857</v>
@@ -7991,16 +7993,16 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="P2" t="n">
-        <v>145.5272350047205</v>
+        <v>667.5152066078567</v>
       </c>
       <c r="Q2" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R2" t="n">
-        <v>170.8626916697543</v>
+        <v>88.52591951401018</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8058,10 +8060,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>20.13097499434645</v>
+        <v>17.17305800913124</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8076,10 +8078,10 @@
         <v>667.515206607857</v>
       </c>
       <c r="Q3" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8155,7 +8157,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821538</v>
+        <v>169.8916917821534</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8213,13 +8215,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
         <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
-        <v>640.5448952297621</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -8228,16 +8230,16 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
         <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8289,31 +8291,31 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>20.13097499434639</v>
       </c>
       <c r="M6" t="n">
-        <v>200.3264657984394</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8389,7 +8391,7 @@
         <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
-        <v>351.0170646165068</v>
+        <v>351.0170646165066</v>
       </c>
       <c r="Q7" t="n">
         <v>169.8916917821538</v>
@@ -8450,22 +8452,22 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>88.52591951400984</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>585.1784344521124</v>
+      </c>
+      <c r="O8" t="n">
         <v>667.515206607857</v>
-      </c>
-      <c r="L8" t="n">
-        <v>667.515206607857</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
       </c>
       <c r="P8" t="n">
         <v>667.515206607857</v>
@@ -8474,7 +8476,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8526,10 +8528,10 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -8538,19 +8540,19 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="N9" t="n">
+        <v>226.6534083847602</v>
+      </c>
+      <c r="O9" t="n">
         <v>667.515206607857</v>
       </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>540.0049805212334</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8687,10 +8689,10 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>651.9316575406119</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -8699,13 +8701,13 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>809.0782778761404</v>
       </c>
       <c r="O11" t="n">
-        <v>701.5799957097203</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P11" t="n">
-        <v>701.5799957097202</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q11" t="n">
         <v>552.0189757157522</v>
@@ -8769,22 +8771,22 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>290.8505511674832</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>1172.126241485671</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>507.9139216242374</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>701.5799957097204</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -8924,31 +8926,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>701.5799957097204</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>701.5799957097202</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>809.0782778761404</v>
       </c>
       <c r="O14" t="n">
-        <v>701.5799957097202</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P14" t="n">
-        <v>673.2333292163985</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9161,22 +9163,22 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>92.22506899525797</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>1137.102003471159</v>
       </c>
       <c r="O17" t="n">
-        <v>990.0804712831379</v>
+        <v>606.9002735643703</v>
       </c>
       <c r="P17" t="n">
         <v>836.6766412458549</v>
@@ -9185,7 +9187,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R17" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9398,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>842.7780726850283</v>
@@ -9407,22 +9409,22 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>143.4079146352456</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O20" t="n">
-        <v>990.0804712831379</v>
+        <v>826.8607034446131</v>
       </c>
       <c r="P20" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9474,16 +9476,16 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>661.3192390158824</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>0.03656536949893052</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9635,31 +9637,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>143.4079146352447</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P23" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9711,22 +9713,22 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>1210.83316575</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>469.2069973599082</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -9735,10 +9737,10 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9875,10 +9877,10 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>679.5583048465023</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>1085.919157831171</v>
+        <v>928.8008214318188</v>
       </c>
       <c r="M26" t="n">
         <v>1168.735187081365</v>
@@ -9890,7 +9892,7 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -9948,13 +9950,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9966,16 +9968,16 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>1024.042030119497</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>655.9981329904112</v>
       </c>
       <c r="Q27" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10112,7 +10114,7 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
@@ -10124,7 +10126,7 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
-        <v>826.8607034446131</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -10133,7 +10135,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>-4.950171672842526e-13</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10185,7 +10187,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -10197,7 +10199,7 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>289.0667057209139</v>
+        <v>433.7499898166688</v>
       </c>
       <c r="N30" t="n">
         <v>1246.290173293239</v>
@@ -10212,7 +10214,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10355,19 +10357,19 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
         <v>1137.102003471159</v>
       </c>
       <c r="O32" t="n">
-        <v>826.8607034446131</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q32" t="n">
-        <v>-4.950171672842526e-13</v>
+        <v>168.8387779969835</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -10583,16 +10585,16 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>168.8387779969848</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N35" t="n">
         <v>1137.102003471159</v>
@@ -10601,13 +10603,13 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P35" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>-9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10671,16 +10673,16 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>1024.042030119497</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>655.9981329904112</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -10820,13 +10822,13 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L38" t="n">
-        <v>756.3484258820594</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
         <v>1168.735187081365</v>
@@ -10835,16 +10837,16 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>826.8607034446122</v>
       </c>
       <c r="P38" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10896,13 +10898,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10911,19 +10913,19 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>433.7499898166689</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11057,31 +11059,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
-        <v>701.5799957097204</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>701.5799957097202</v>
+        <v>559.8357612908239</v>
       </c>
       <c r="N41" t="n">
-        <v>701.5799957097202</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>673.2333292163985</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11133,13 +11135,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11148,19 +11150,19 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>276.8801716904673</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>701.5799957097203</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>701.5799957097204</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11294,31 +11296,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>701.5799957097204</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>701.5799957097202</v>
+        <v>514.7543470900101</v>
       </c>
       <c r="N44" t="n">
-        <v>701.5799957097202</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P44" t="n">
-        <v>673.2333292163985</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11376,7 +11378,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158822</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -23255,10 +23257,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>422.0365747800587</v>
+        <v>411.8858435779281</v>
       </c>
       <c r="C11" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23270,13 +23272,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>179.2298466710613</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,16 +23308,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23419,10 +23421,10 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>22.86827275269496</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F13" t="n">
         <v>174.9399834978613</v>
@@ -23431,10 +23433,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>124.3589898130754</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23507,7 +23509,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>286.2388530112159</v>
@@ -23546,22 +23548,22 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
-        <v>217.8665548556918</v>
+        <v>42.41901400958</v>
       </c>
       <c r="U14" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>236.8367164334847</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23662,16 +23664,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>160.7958207444075</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,7 +23703,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23710,7 +23712,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>229.4233680290249</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23899,13 +23901,13 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
         <v>87.77334973307141</v>
@@ -23935,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23956,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>124.3589898130717</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24139,7 +24141,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>139.5921776627233</v>
+        <v>139.5921776627262</v>
       </c>
       <c r="H22" t="n">
         <v>138.5031525665292</v>
@@ -24364,7 +24366,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>161.9268490649757</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -24379,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>120.4463752142721</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24430,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24646,28 +24648,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>4.277894049991971</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>81.78272691405297</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24844,7 +24846,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -24853,10 +24855,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,10 +24888,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T31" t="n">
-        <v>197.8082562505563</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25120,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25132,10 +25134,10 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>161.9268490649757</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>140.723205983294</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25327,10 +25329,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>117.7661826744372</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25372,7 +25374,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25552,10 +25554,10 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -25594,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T40" t="n">
-        <v>54.79268646174597</v>
+        <v>208.2197249473419</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25625,10 +25627,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -25637,7 +25639,7 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>411.4732220987969</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -25646,7 +25648,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25682,19 +25684,19 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>162.2228900238639</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25789,7 +25791,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -25798,7 +25800,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>44.0005120768504</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -25831,19 +25833,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>111.4236523045825</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25862,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>422.0365747800587</v>
+        <v>411.8858435779281</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -25871,19 +25873,19 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>192.6456571055793</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25913,7 +25915,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -25925,7 +25927,7 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -26023,10 +26025,10 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26035,13 +26037,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>84.63380825304826</v>
+        <v>52.01701577190844</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>419519.1343613548</v>
+        <v>594390.513008829</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>419519.1343613548</v>
+        <v>594390.513008829</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>633833.7024224802</v>
+        <v>633833.7024224801</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>633833.7024224802</v>
+        <v>633833.7024224801</v>
       </c>
     </row>
     <row r="9">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>419519.1343613547</v>
+        <v>594390.513008829</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>419519.1343613549</v>
+        <v>594390.513008829</v>
       </c>
     </row>
   </sheetData>
@@ -26311,37 +26313,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>375303.1239232859</v>
+        <v>375303.123923286</v>
       </c>
       <c r="C2" t="n">
-        <v>375303.1239232859</v>
+        <v>375303.123923286</v>
       </c>
       <c r="D2" t="n">
         <v>375303.1239232859</v>
       </c>
       <c r="E2" t="n">
-        <v>244099.9677817453</v>
+        <v>345850.0296919846</v>
       </c>
       <c r="F2" t="n">
-        <v>244099.9677817453</v>
+        <v>345850.0296919845</v>
       </c>
       <c r="G2" t="n">
         <v>368800.3088961467</v>
       </c>
       <c r="H2" t="n">
-        <v>368800.3088961467</v>
+        <v>368800.3088961466</v>
       </c>
       <c r="I2" t="n">
-        <v>368800.3088961467</v>
+        <v>368800.3088961466</v>
       </c>
       <c r="J2" t="n">
         <v>368800.3088961467</v>
       </c>
       <c r="K2" t="n">
-        <v>368800.3088961467</v>
+        <v>368800.3088961466</v>
       </c>
       <c r="L2" t="n">
-        <v>368800.3088961467</v>
+        <v>368800.3088961466</v>
       </c>
       <c r="M2" t="n">
         <v>368800.3088961467</v>
@@ -26350,10 +26352,10 @@
         <v>368800.3088961467</v>
       </c>
       <c r="O2" t="n">
-        <v>244099.9677817453</v>
+        <v>345850.0296919845</v>
       </c>
       <c r="P2" t="n">
-        <v>244099.9677817452</v>
+        <v>345850.0296919846</v>
       </c>
     </row>
     <row r="3">
@@ -26372,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>10170.99660045615</v>
+        <v>150665.7535717479</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>158059.4769461093</v>
+        <v>29089.80917260791</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>8489.081703340753</v>
+        <v>125751.0883356907</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26418,19 +26420,19 @@
         <v>165263.0882595584</v>
       </c>
       <c r="C4" t="n">
-        <v>165263.0882595584</v>
+        <v>165263.0882595585</v>
       </c>
       <c r="D4" t="n">
         <v>165263.0882595584</v>
       </c>
       <c r="E4" t="n">
-        <v>53902.87451562435</v>
+        <v>76371.62315556087</v>
       </c>
       <c r="F4" t="n">
-        <v>53902.87451562436</v>
+        <v>76371.62315556087</v>
       </c>
       <c r="G4" t="n">
-        <v>81439.57146904284</v>
+        <v>81439.57146904283</v>
       </c>
       <c r="H4" t="n">
         <v>81439.57146904284</v>
@@ -26448,16 +26450,16 @@
         <v>81439.57146904283</v>
       </c>
       <c r="M4" t="n">
+        <v>81439.57146904284</v>
+      </c>
+      <c r="N4" t="n">
         <v>81439.57146904283</v>
       </c>
-      <c r="N4" t="n">
-        <v>81439.57146904284</v>
-      </c>
       <c r="O4" t="n">
-        <v>53902.87451562436</v>
+        <v>76371.62315556087</v>
       </c>
       <c r="P4" t="n">
-        <v>53902.87451562435</v>
+        <v>76371.62315556087</v>
       </c>
     </row>
     <row r="5">
@@ -26476,10 +26478,10 @@
         <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>42656.06373915099</v>
+        <v>71265.27548232877</v>
       </c>
       <c r="F5" t="n">
-        <v>42656.06373915099</v>
+        <v>71265.27548232877</v>
       </c>
       <c r="G5" t="n">
         <v>77718.23860579252</v>
@@ -26506,10 +26508,10 @@
         <v>77718.23860579252</v>
       </c>
       <c r="O5" t="n">
-        <v>42656.06373915099</v>
+        <v>71265.27548232877</v>
       </c>
       <c r="P5" t="n">
-        <v>42656.06373915099</v>
+        <v>71265.27548232877</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-87872.18748207508</v>
+        <v>-87872.18748207495</v>
       </c>
       <c r="C6" t="n">
-        <v>135827.5111019698</v>
+        <v>135827.5111019699</v>
       </c>
       <c r="D6" t="n">
         <v>135827.5111019698</v>
       </c>
       <c r="E6" t="n">
-        <v>137370.0329265138</v>
+        <v>47547.37748234709</v>
       </c>
       <c r="F6" t="n">
-        <v>147541.0295269699</v>
+        <v>198213.1310540949</v>
       </c>
       <c r="G6" t="n">
-        <v>51583.02187520209</v>
+        <v>180552.6896487035</v>
       </c>
       <c r="H6" t="n">
+        <v>209642.4988213112</v>
+      </c>
+      <c r="I6" t="n">
         <v>209642.4988213113</v>
-      </c>
-      <c r="I6" t="n">
-        <v>209642.4988213114</v>
       </c>
       <c r="J6" t="n">
         <v>34991.15010360518</v>
       </c>
       <c r="K6" t="n">
-        <v>209642.4988213114</v>
+        <v>209642.4988213113</v>
       </c>
       <c r="L6" t="n">
-        <v>209642.4988213114</v>
+        <v>209642.4988213113</v>
       </c>
       <c r="M6" t="n">
-        <v>201153.4171179705</v>
+        <v>83891.41048562061</v>
       </c>
       <c r="N6" t="n">
         <v>209642.4988213113</v>
       </c>
       <c r="O6" t="n">
-        <v>147541.0295269699</v>
+        <v>198213.1310540948</v>
       </c>
       <c r="P6" t="n">
-        <v>147541.0295269699</v>
+        <v>198213.1310540949</v>
       </c>
     </row>
   </sheetData>
@@ -26796,10 +26798,10 @@
         <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>701.5799957097203</v>
+        <v>1172.126241485671</v>
       </c>
       <c r="F4" t="n">
-        <v>701.5799957097203</v>
+        <v>1172.126241485671</v>
       </c>
       <c r="G4" t="n">
         <v>1278.260503384745</v>
@@ -26826,10 +26828,10 @@
         <v>1278.260503384745</v>
       </c>
       <c r="O4" t="n">
-        <v>701.5799957097203</v>
+        <v>1172.126241485671</v>
       </c>
       <c r="P4" t="n">
-        <v>701.5799957097203</v>
+        <v>1172.126241485671</v>
       </c>
     </row>
   </sheetData>
@@ -27018,13 +27020,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>34.06478910186334</v>
+        <v>504.6110348778136</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>576.6805076750251</v>
+        <v>106.1342618990748</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>34.06478910186334</v>
+        <v>504.6110348778136</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>34.06478910186334</v>
+        <v>504.6110348778136</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>576.6805076750251</v>
+        <v>106.1342618990748</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27391,7 +27393,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
         <v>286.2388530112159</v>
@@ -27430,7 +27432,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>256.6300796561533</v>
@@ -27445,7 +27447,7 @@
         <v>400</v>
       </c>
       <c r="Y2" t="n">
-        <v>367.2261030860415</v>
+        <v>187.7088048787645</v>
       </c>
     </row>
     <row r="3">
@@ -27546,13 +27548,13 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>84.63380825304888</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27582,13 +27584,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>208.2197249473433</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -27613,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E5" t="n">
-        <v>370.2548715022042</v>
+        <v>400</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>10.77694568710444</v>
       </c>
       <c r="G5" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,13 +27666,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>358.9907805655117</v>
@@ -27682,7 +27684,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="6">
@@ -27783,13 +27785,13 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>135.3636110865062</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
         <v>87.77334973307141</v>
@@ -27825,7 +27827,7 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>160.7958207444081</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -27859,10 +27861,10 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>369.8422500230728</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>397.3838530629687</v>
@@ -27913,10 +27915,10 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.8422500230731</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28011,7 +28013,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>161.9268490649757</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28074,10 +28076,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
-        <v>225.1454739790328</v>
+        <v>144.1344859240867</v>
       </c>
     </row>
     <row r="11">
@@ -28567,7 +28569,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>-7.792342615882927e-13</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -28767,7 +28769,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>3.959144123655279e-12</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -28852,7 +28854,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>-8.810729923425242e-13</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -28959,7 +28961,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>2.922225424602705e-12</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -34696,7 +34698,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>667.515206607857</v>
@@ -34711,16 +34713,16 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="P2" t="n">
-        <v>145.5272350047205</v>
+        <v>667.5152066078567</v>
       </c>
       <c r="Q2" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R2" t="n">
-        <v>170.8626916697544</v>
+        <v>88.52591951401018</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34778,10 +34780,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>20.13097499434645</v>
+        <v>17.17305800913124</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -34796,10 +34798,10 @@
         <v>667.515206607857</v>
       </c>
       <c r="Q3" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34863,19 +34865,19 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>464.1251183645585</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N4" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P4" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821539</v>
+        <v>169.8916917821534</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,13 +34935,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
         <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
-        <v>640.5448952297621</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -34948,16 +34950,16 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
         <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35009,31 +35011,31 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>20.13097499434639</v>
       </c>
       <c r="M6" t="n">
-        <v>200.3264657984394</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35109,7 +35111,7 @@
         <v>423.9083325512945</v>
       </c>
       <c r="P7" t="n">
-        <v>351.017064616507</v>
+        <v>351.0170646165066</v>
       </c>
       <c r="Q7" t="n">
         <v>169.8916917821539</v>
@@ -35170,22 +35172,22 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>88.52591951400984</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>585.1784344521124</v>
+      </c>
+      <c r="O8" t="n">
         <v>667.515206607857</v>
-      </c>
-      <c r="L8" t="n">
-        <v>667.515206607857</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
       </c>
       <c r="P8" t="n">
         <v>667.515206607857</v>
@@ -35194,7 +35196,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35246,10 +35248,10 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -35258,19 +35260,19 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="N9" t="n">
+        <v>226.6534083847602</v>
+      </c>
+      <c r="O9" t="n">
         <v>667.515206607857</v>
       </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>540.0049805212334</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35328,7 +35330,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
         <v>277.5337924960966</v>
@@ -35337,13 +35339,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
         <v>351.017064616507</v>
@@ -35407,10 +35409,10 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>651.9316575406119</v>
+        <v>842.7780726850284</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -35419,19 +35421,19 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>809.0782778761404</v>
       </c>
       <c r="O11" t="n">
-        <v>701.5799957097203</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P11" t="n">
-        <v>701.5799957097202</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q11" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R11" t="n">
-        <v>170.8626916697544</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,22 +35491,22 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>290.8505511674832</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>1172.126241485671</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>507.9139216242374</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>701.5799957097204</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35565,13 +35567,13 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080416</v>
       </c>
       <c r="M13" t="n">
         <v>464.1251183645586</v>
@@ -35644,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>701.5799957097204</v>
+        <v>842.7780726850284</v>
       </c>
       <c r="L14" t="n">
-        <v>701.5799957097202</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>809.0782778761404</v>
       </c>
       <c r="O14" t="n">
-        <v>701.5799957097202</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P14" t="n">
-        <v>673.2333292163985</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35802,13 +35804,13 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L16" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080416</v>
       </c>
       <c r="M16" t="n">
         <v>464.1251183645586</v>
@@ -35881,22 +35883,22 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>842.7780726850282</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>92.22506899525797</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>1137.102003471159</v>
       </c>
       <c r="O17" t="n">
-        <v>990.0804712831377</v>
+        <v>606.9002735643703</v>
       </c>
       <c r="P17" t="n">
         <v>836.6766412458546</v>
@@ -35905,7 +35907,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R17" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -36118,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>842.7780726850282</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L20" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>143.4079146352456</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>1137.102003471158</v>
       </c>
       <c r="O20" t="n">
-        <v>990.0804712831377</v>
+        <v>826.8607034446131</v>
       </c>
       <c r="P20" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,16 +36196,16 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>661.3192390158824</v>
+        <v>687.6096162327043</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>0.03656536949893052</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -36355,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>842.7780726850282</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>143.4079146352447</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P23" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,22 +36433,22 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>1210.83316575</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>469.2069973599082</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -36455,10 +36457,10 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36595,10 +36597,10 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>679.5583048465023</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>1085.919157831171</v>
+        <v>928.8008214318188</v>
       </c>
       <c r="M26" t="n">
         <v>1168.735187081365</v>
@@ -36610,7 +36612,7 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -36668,13 +36670,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -36686,16 +36688,16 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>1024.042030119497</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>655.9981329904112</v>
       </c>
       <c r="Q27" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36832,7 +36834,7 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
@@ -36841,10 +36843,10 @@
         <v>1168.735187081365</v>
       </c>
       <c r="N29" t="n">
-        <v>1137.102003471158</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
-        <v>826.8607034446131</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -36853,7 +36855,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>-8.053963279557705e-14</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -36917,7 +36919,7 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>289.0667057209139</v>
+        <v>433.7499898166688</v>
       </c>
       <c r="N30" t="n">
         <v>1246.290173293239</v>
@@ -36932,7 +36934,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37075,19 +37077,19 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>1137.102003471158</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O32" t="n">
-        <v>826.8607034446131</v>
+        <v>990.0804712831382</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q32" t="n">
-        <v>-8.053963279557705e-14</v>
+        <v>168.8387779969835</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37303,16 +37305,16 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>168.8387779969848</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N35" t="n">
         <v>1137.102003471159</v>
@@ -37321,13 +37323,13 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P35" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>-9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37391,16 +37393,16 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>1024.042030119497</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>655.9981329904112</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37540,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L38" t="n">
-        <v>756.3484258820594</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
         <v>1168.735187081365</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471159</v>
+        <v>1137.102003471158</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>826.8607034446122</v>
       </c>
       <c r="P38" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,13 +37618,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -37631,19 +37633,19 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>433.7499898166689</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,13 +37700,13 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908057</v>
       </c>
       <c r="K40" t="n">
-        <v>277.5337924960966</v>
+        <v>277.5337924960963</v>
       </c>
       <c r="L40" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M40" t="n">
         <v>464.1251183645586</v>
@@ -37713,13 +37715,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O40" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512947</v>
       </c>
       <c r="P40" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q40" t="n">
-        <v>169.8916917821539</v>
+        <v>169.8916917821534</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>842.7780726850284</v>
       </c>
       <c r="L41" t="n">
-        <v>701.5799957097204</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>701.5799957097202</v>
+        <v>559.8357612908239</v>
       </c>
       <c r="N41" t="n">
-        <v>701.5799957097202</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>673.2333292163985</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,13 +37855,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -37868,19 +37870,19 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>276.8801716904673</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>701.5799957097203</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>701.5799957097204</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,13 +37937,13 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K43" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L43" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080416</v>
       </c>
       <c r="M43" t="n">
         <v>464.1251183645586</v>
@@ -38014,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>701.5799957097204</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>701.5799957097202</v>
+        <v>514.7543470900101</v>
       </c>
       <c r="N44" t="n">
-        <v>701.5799957097202</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P44" t="n">
-        <v>673.2333292163985</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,13 +38092,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>26.32694258632091</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158822</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38172,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K46" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080416</v>
       </c>
       <c r="M46" t="n">
         <v>464.1251183645586</v>
       </c>
       <c r="N46" t="n">
-        <v>446.7260637956008</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O46" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P46" t="n">
         <v>351.017064616507</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_6_28.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_6_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1067863.521977151</v>
+        <v>1067257.434348254</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>16659530.99074006</v>
+        <v>16659530.99074005</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>606553.2040797169</v>
+        <v>606553.2040797166</v>
       </c>
     </row>
     <row r="9">
@@ -664,13 +664,13 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D2" t="n">
-        <v>431.5506869772999</v>
+        <v>386.7991809632501</v>
       </c>
       <c r="E2" t="n">
-        <v>429.4369973932878</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F2" t="n">
-        <v>423.5887552948843</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -679,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -715,7 +715,7 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -724,10 +724,10 @@
         <v>0.8069000430770075</v>
       </c>
       <c r="X2" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>216.4944575845786</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="3">
@@ -819,7 +819,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>164.2192128704925</v>
@@ -828,16 +828,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
-        <v>90.30617524481245</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>31.24391673888101</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>157.6489550149833</v>
@@ -895,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>22.03657478005869</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
-        <v>33.76104808841092</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D5" t="n">
-        <v>31.5506869772999</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F5" t="n">
-        <v>412.8118096077799</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G5" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -952,19 +952,19 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>400.806900043077</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X5" t="n">
-        <v>414.9510387864824</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>4.203262463343094</v>
+        <v>133.2664810274458</v>
       </c>
     </row>
     <row r="6">
@@ -1068,13 +1068,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>3.13954148002296</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1107,7 +1107,7 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
-        <v>82.62483121292118</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
         <v>275.6486707394257</v>
@@ -1138,13 +1138,13 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D8" t="n">
-        <v>431.5506869772999</v>
+        <v>378.4804603970944</v>
       </c>
       <c r="E8" t="n">
-        <v>429.4369973932878</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F8" t="n">
-        <v>423.5887552948843</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1195,10 +1195,10 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X8" t="n">
-        <v>45.10878876340928</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
         <v>404.2032624633431</v>
@@ -1311,7 +1311,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1341,10 +1341,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>101.7706336613758</v>
       </c>
       <c r="U10" t="n">
         <v>275.6486707394257</v>
@@ -1356,10 +1356,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
-        <v>81.01098805494614</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="11">
@@ -1369,10 +1369,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>10.1507312021306</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
-        <v>433.7610480884109</v>
+        <v>22.28782598961422</v>
       </c>
       <c r="D11" t="n">
         <v>431.5506869772999</v>
@@ -1390,7 +1390,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1533,13 +1533,13 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D13" t="n">
-        <v>141.3509401177976</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>39.86022305741708</v>
       </c>
       <c r="G13" t="n">
         <v>163.9353622244306</v>
@@ -1548,7 +1548,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
         <v>157.6489550149833</v>
@@ -1624,10 +1624,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1660,7 +1660,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>175.4475408461118</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>256.6300796561533</v>
@@ -1675,7 +1675,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y14" t="n">
-        <v>404.2032624633431</v>
+        <v>292.9993288191084</v>
       </c>
     </row>
     <row r="15">
@@ -1773,7 +1773,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E16" t="n">
-        <v>168.0604237117701</v>
+        <v>50.29424103733323</v>
       </c>
       <c r="F16" t="n">
         <v>174.9399834978613</v>
@@ -1815,7 +1815,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T16" t="n">
         <v>243.4206519573293</v>
@@ -1824,10 +1824,10 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V16" t="n">
-        <v>54.66258501924893</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W16" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>242.9378371199217</v>
@@ -1861,7 +1861,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H17" t="n">
-        <v>286.2388530112159</v>
+        <v>286.238853011217</v>
       </c>
       <c r="I17" t="n">
         <v>0.4126214791313976</v>
@@ -1900,7 +1900,7 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U17" t="n">
-        <v>256.6300796561544</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V17" t="n">
         <v>358.9907805655117</v>
@@ -2019,10 +2019,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,10 +2052,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T19" t="n">
-        <v>243.4206519573293</v>
+        <v>102.6974459740356</v>
       </c>
       <c r="U19" t="n">
         <v>275.6486707394257</v>
@@ -2070,7 +2070,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y19" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2253,13 +2253,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>24.34318456170439</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
         <v>157.6489550149833</v>
@@ -2295,13 +2295,13 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U22" t="n">
-        <v>275.6486707394257</v>
+        <v>157.8824880649885</v>
       </c>
       <c r="V22" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W22" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>242.9378371199217</v>
@@ -2484,7 +2484,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E25" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>174.9399834978613</v>
@@ -2493,10 +2493,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
-        <v>18.05677735225717</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,16 +2523,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U25" t="n">
-        <v>275.6486707394257</v>
+        <v>56.63677140718762</v>
       </c>
       <c r="V25" t="n">
         <v>284.0859530482738</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>189.9004325317972</v>
+        <v>86.91406253606259</v>
       </c>
       <c r="C28" t="n">
         <v>170.8360944016073</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
         <v>157.6489550149833</v>
@@ -2775,7 +2775,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>187.5234134555184</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X28" t="n">
         <v>242.9378371199217</v>
@@ -2952,7 +2952,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C31" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>164.2192128704925</v>
@@ -2967,10 +2967,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3012,7 +3012,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W31" t="n">
-        <v>269.3061403695714</v>
+        <v>53.06991172717014</v>
       </c>
       <c r="X31" t="n">
         <v>242.9378371199217</v>
@@ -3204,10 +3204,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H34" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3249,13 +3249,13 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W34" t="n">
-        <v>128.5829343862774</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X34" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>85.55329631630673</v>
       </c>
     </row>
     <row r="35">
@@ -3438,13 +3438,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,13 +3474,13 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T37" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U37" t="n">
-        <v>275.6486707394257</v>
+        <v>212.2185055680589</v>
       </c>
       <c r="V37" t="n">
         <v>284.0859530482738</v>
@@ -3562,7 +3562,7 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V38" t="n">
-        <v>358.9907805655117</v>
+        <v>358.9907805655127</v>
       </c>
       <c r="W38" t="n">
         <v>400.806900043077</v>
@@ -3708,19 +3708,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T40" t="n">
-        <v>35.20092700998732</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U40" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>284.0859530482738</v>
+        <v>172.6623007436909</v>
       </c>
       <c r="W40" t="n">
         <v>269.3061403695714</v>
@@ -3748,19 +3748,19 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E41" t="n">
-        <v>429.4369973932878</v>
+        <v>303.7900068265755</v>
       </c>
       <c r="F41" t="n">
-        <v>12.11553319608741</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H41" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3897,13 +3897,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E43" t="n">
         <v>168.0604237117701</v>
@@ -3912,7 +3912,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>119.9348501475802</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
         <v>138.5031525665292</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T43" t="n">
         <v>243.4206519573293</v>
@@ -3960,7 +3960,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W43" t="n">
-        <v>269.3061403695714</v>
+        <v>72.13424985736047</v>
       </c>
       <c r="X43" t="n">
         <v>242.9378371199217</v>
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>10.1507312021306</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
         <v>433.7610480884109</v>
@@ -4033,7 +4033,7 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U44" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>358.9907805655117</v>
@@ -4042,7 +4042,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
-        <v>414.9510387864824</v>
+        <v>259.6952748647078</v>
       </c>
       <c r="Y44" t="n">
         <v>404.2032624633431</v>
@@ -4137,10 +4137,10 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E46" t="n">
         <v>168.0604237117701</v>
@@ -4152,10 +4152,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>35.75633396116297</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225796</v>
       </c>
       <c r="T46" t="n">
         <v>243.4206519573293</v>
@@ -4306,52 +4306,52 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1789.095648603258</v>
+        <v>936.2280884669766</v>
       </c>
       <c r="C2" t="n">
-        <v>1350.953175786681</v>
+        <v>498.0856156503999</v>
       </c>
       <c r="D2" t="n">
-        <v>915.0433909611256</v>
+        <v>107.3793722531775</v>
       </c>
       <c r="E2" t="n">
-        <v>481.2686461194208</v>
+        <v>77.64503145187676</v>
       </c>
       <c r="F2" t="n">
-        <v>53.40121652862856</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="G2" t="n">
-        <v>53.40121652862856</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="H2" t="n">
-        <v>53.40121652862856</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I2" t="n">
         <v>53.40121652862856</v>
       </c>
       <c r="J2" t="n">
-        <v>53.40121652862856</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K2" t="n">
-        <v>714.2412710704069</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L2" t="n">
-        <v>714.2412710704069</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="M2" t="n">
-        <v>714.2412710704069</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="N2" t="n">
-        <v>714.2412710704069</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="O2" t="n">
-        <v>1375.081325612185</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P2" t="n">
-        <v>2035.921380153963</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q2" t="n">
-        <v>2582.420166112558</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R2" t="n">
         <v>2670.060826431428</v>
@@ -4363,19 +4363,19 @@
         <v>2449.993599304466</v>
       </c>
       <c r="U2" t="n">
-        <v>2449.993599304466</v>
+        <v>2190.771296621483</v>
       </c>
       <c r="V2" t="n">
-        <v>2449.993599304466</v>
+        <v>2190.771296621483</v>
       </c>
       <c r="W2" t="n">
-        <v>2449.178548755904</v>
+        <v>2189.95624607292</v>
       </c>
       <c r="X2" t="n">
-        <v>2434.076489375619</v>
+        <v>1770.813782652231</v>
       </c>
       <c r="Y2" t="n">
-        <v>2215.395219088166</v>
+        <v>1362.527658951884</v>
       </c>
     </row>
     <row r="3">
@@ -4406,31 +4406,31 @@
         <v>53.40121652862856</v>
       </c>
       <c r="I3" t="n">
-        <v>53.40121652862856</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J3" t="n">
-        <v>377.9595414948409</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K3" t="n">
-        <v>394.9608689238808</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L3" t="n">
-        <v>1055.800923465659</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M3" t="n">
-        <v>1055.800923465659</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N3" t="n">
-        <v>1055.800923465659</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O3" t="n">
-        <v>1055.800923465659</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P3" t="n">
-        <v>1716.640978007438</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q3" t="n">
-        <v>1716.640978007438</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R3" t="n">
         <v>1716.640978007438</v>
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>741.4772326516122</v>
+        <v>762.8950539462403</v>
       </c>
       <c r="C4" t="n">
-        <v>568.9155211348371</v>
+        <v>762.8950539462403</v>
       </c>
       <c r="D4" t="n">
-        <v>403.0375283363599</v>
+        <v>597.017061147763</v>
       </c>
       <c r="E4" t="n">
-        <v>233.2795245870971</v>
+        <v>427.2590573985003</v>
       </c>
       <c r="F4" t="n">
-        <v>142.0611657539532</v>
+        <v>250.5520033602565</v>
       </c>
       <c r="G4" t="n">
-        <v>142.0611657539532</v>
+        <v>84.96072838608413</v>
       </c>
       <c r="H4" t="n">
-        <v>142.0611657539532</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I4" t="n">
         <v>53.40121652862856</v>
@@ -4500,7 +4500,7 @@
         <v>1292.433105213328</v>
       </c>
       <c r="N4" t="n">
-        <v>1734.691908370973</v>
+        <v>1734.691908370972</v>
       </c>
       <c r="O4" t="n">
         <v>2154.361157596754</v>
@@ -4512,28 +4512,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R4" t="n">
-        <v>2648.6430051368</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S4" t="n">
-        <v>2489.401636434796</v>
+        <v>2510.819457729424</v>
       </c>
       <c r="T4" t="n">
-        <v>2243.522190013251</v>
+        <v>2264.94001130788</v>
       </c>
       <c r="U4" t="n">
-        <v>1965.089189266357</v>
+        <v>1986.507010560985</v>
       </c>
       <c r="V4" t="n">
-        <v>1678.133681136787</v>
+        <v>1699.551502431415</v>
       </c>
       <c r="W4" t="n">
-        <v>1406.107276723079</v>
+        <v>1427.525098017707</v>
       </c>
       <c r="X4" t="n">
-        <v>1160.715522056491</v>
+        <v>1182.133343351119</v>
       </c>
       <c r="Y4" t="n">
-        <v>933.2958513705994</v>
+        <v>954.7136726652275</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1256.616618691218</v>
+        <v>1789.512437976118</v>
       </c>
       <c r="C5" t="n">
-        <v>1222.514549915045</v>
+        <v>1351.369965159541</v>
       </c>
       <c r="D5" t="n">
-        <v>1190.645169129893</v>
+        <v>915.4601803339856</v>
       </c>
       <c r="E5" t="n">
-        <v>1160.910828328593</v>
+        <v>481.6854354922808</v>
       </c>
       <c r="F5" t="n">
-        <v>743.9292024621484</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="G5" t="n">
-        <v>342.5313710854123</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="H5" t="n">
-        <v>53.40121652862856</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I5" t="n">
         <v>53.40121652862856</v>
@@ -4600,19 +4600,19 @@
         <v>2366.341725488303</v>
       </c>
       <c r="U5" t="n">
-        <v>2107.11942280532</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="V5" t="n">
-        <v>2107.11942280532</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="W5" t="n">
-        <v>1702.263968216353</v>
+        <v>2365.526674939741</v>
       </c>
       <c r="X5" t="n">
-        <v>1283.121504795664</v>
+        <v>2350.424615559456</v>
       </c>
       <c r="Y5" t="n">
-        <v>1278.875785135721</v>
+        <v>2215.812008461025</v>
       </c>
     </row>
     <row r="6">
@@ -4643,13 +4643,13 @@
         <v>53.40121652862856</v>
       </c>
       <c r="I6" t="n">
-        <v>53.40121652862856</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J6" t="n">
-        <v>377.9595414948409</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K6" t="n">
-        <v>1038.799596036619</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L6" t="n">
         <v>1058.729261281022</v>
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>903.8972536055599</v>
+        <v>741.4772326516127</v>
       </c>
       <c r="C7" t="n">
-        <v>731.3355420887848</v>
+        <v>568.9155211348376</v>
       </c>
       <c r="D7" t="n">
-        <v>565.4575492903075</v>
+        <v>403.0375283363603</v>
       </c>
       <c r="E7" t="n">
-        <v>395.6995455410447</v>
+        <v>233.2795245870976</v>
       </c>
       <c r="F7" t="n">
-        <v>218.9924915028009</v>
+        <v>56.57247054885377</v>
       </c>
       <c r="G7" t="n">
-        <v>53.40121652862856</v>
+        <v>56.57247054885377</v>
       </c>
       <c r="H7" t="n">
-        <v>53.40121652862856</v>
+        <v>56.57247054885377</v>
       </c>
       <c r="I7" t="n">
         <v>53.40121652862856</v>
@@ -4752,25 +4752,25 @@
         <v>2648.6430051368</v>
       </c>
       <c r="S7" t="n">
-        <v>2489.401636434796</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T7" t="n">
-        <v>2405.942210967199</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="U7" t="n">
-        <v>2127.509210220304</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V7" t="n">
-        <v>1840.553702090735</v>
+        <v>1678.133681136788</v>
       </c>
       <c r="W7" t="n">
-        <v>1568.527297677026</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X7" t="n">
-        <v>1323.135543010439</v>
+        <v>1160.715522056492</v>
       </c>
       <c r="Y7" t="n">
-        <v>1095.715872324547</v>
+        <v>933.2958513705998</v>
       </c>
     </row>
     <row r="8">
@@ -4780,43 +4780,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1789.095648603258</v>
+        <v>927.8253404203546</v>
       </c>
       <c r="C8" t="n">
-        <v>1350.953175786681</v>
+        <v>489.6828676037779</v>
       </c>
       <c r="D8" t="n">
-        <v>915.0433909611256</v>
+        <v>107.3793722531775</v>
       </c>
       <c r="E8" t="n">
-        <v>481.2686461194208</v>
+        <v>77.64503145187676</v>
       </c>
       <c r="F8" t="n">
-        <v>53.40121652862856</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="G8" t="n">
-        <v>53.40121652862856</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="H8" t="n">
-        <v>53.40121652862856</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I8" t="n">
         <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>53.40121652862856</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K8" t="n">
-        <v>53.40121652862856</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L8" t="n">
-        <v>53.40121652862856</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="M8" t="n">
-        <v>53.40121652862856</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="N8" t="n">
-        <v>632.7278666362198</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="O8" t="n">
         <v>1293.567921177998</v>
@@ -4831,25 +4831,25 @@
         <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>2670.060826431428</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T8" t="n">
-        <v>2670.060826431428</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="U8" t="n">
-        <v>2670.060826431428</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="V8" t="n">
-        <v>2670.060826431428</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="W8" t="n">
-        <v>2669.245775882865</v>
+        <v>2181.553498026298</v>
       </c>
       <c r="X8" t="n">
-        <v>2623.681342788512</v>
+        <v>1762.411034605609</v>
       </c>
       <c r="Y8" t="n">
-        <v>2215.395219088166</v>
+        <v>1354.124910905262</v>
       </c>
     </row>
     <row r="9">
@@ -4880,28 +4880,28 @@
         <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>53.40121652862856</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>53.40121652862856</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>53.40121652862856</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L9" t="n">
-        <v>53.40121652862856</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M9" t="n">
-        <v>714.2412710704069</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N9" t="n">
-        <v>938.6281453713194</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O9" t="n">
-        <v>1599.468199913098</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P9" t="n">
-        <v>1599.468199913098</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
         <v>1599.468199913098</v>
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1132.45937714051</v>
+        <v>1043.799427915185</v>
       </c>
       <c r="C10" t="n">
-        <v>959.897665623735</v>
+        <v>871.2377163984103</v>
       </c>
       <c r="D10" t="n">
-        <v>794.0196728252577</v>
+        <v>705.359723599933</v>
       </c>
       <c r="E10" t="n">
-        <v>624.2616690759949</v>
+        <v>535.6017198506702</v>
       </c>
       <c r="F10" t="n">
-        <v>447.554615037751</v>
+        <v>358.8946658124264</v>
       </c>
       <c r="G10" t="n">
-        <v>281.9633400635787</v>
+        <v>193.303390838254</v>
       </c>
       <c r="H10" t="n">
-        <v>142.0611657539532</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I10" t="n">
         <v>53.40121652862856</v>
@@ -4989,25 +4989,25 @@
         <v>2648.6430051368</v>
       </c>
       <c r="S10" t="n">
-        <v>2489.401636434797</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="T10" t="n">
-        <v>2243.522190013252</v>
+        <v>2545.844385276825</v>
       </c>
       <c r="U10" t="n">
-        <v>1965.089189266357</v>
+        <v>2267.41138452993</v>
       </c>
       <c r="V10" t="n">
-        <v>1678.133681136788</v>
+        <v>1980.45587640036</v>
       </c>
       <c r="W10" t="n">
-        <v>1406.107276723079</v>
+        <v>1708.429471986652</v>
       </c>
       <c r="X10" t="n">
-        <v>1406.107276723079</v>
+        <v>1463.037717320064</v>
       </c>
       <c r="Y10" t="n">
-        <v>1324.277995859497</v>
+        <v>1235.618046634173</v>
       </c>
     </row>
     <row r="11">
@@ -5017,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2520.409306699863</v>
+        <v>2104.363000055491</v>
       </c>
       <c r="C11" t="n">
-        <v>2082.266833883286</v>
+        <v>2081.850044510426</v>
       </c>
       <c r="D11" t="n">
-        <v>1646.357049057731</v>
+        <v>1645.940259684871</v>
       </c>
       <c r="E11" t="n">
-        <v>1212.582304216026</v>
+        <v>1212.165514843166</v>
       </c>
       <c r="F11" t="n">
-        <v>784.7148746252335</v>
+        <v>784.2980852523735</v>
       </c>
       <c r="G11" t="n">
-        <v>383.3170432484974</v>
+        <v>382.9002538756374</v>
       </c>
       <c r="H11" t="n">
-        <v>94.18688869171365</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="I11" t="n">
         <v>93.77009931885365</v>
@@ -5047,10 +5047,10 @@
         <v>1363.37507872995</v>
       </c>
       <c r="L11" t="n">
-        <v>1363.37507872995</v>
+        <v>2164.362573827329</v>
       </c>
       <c r="M11" t="n">
-        <v>1363.37507872995</v>
+        <v>2164.362573827329</v>
       </c>
       <c r="N11" t="n">
         <v>2164.362573827329</v>
@@ -5117,31 +5117,31 @@
         <v>93.77009931885365</v>
       </c>
       <c r="I12" t="n">
-        <v>93.77009931885365</v>
+        <v>119.8337724793113</v>
       </c>
       <c r="J12" t="n">
-        <v>93.77009931885365</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="K12" t="n">
-        <v>93.77009931885365</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="L12" t="n">
-        <v>93.77009931885365</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="M12" t="n">
-        <v>1254.175078389668</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="N12" t="n">
-        <v>1757.009860797662</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="O12" t="n">
-        <v>1757.009860797662</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="P12" t="n">
-        <v>1757.009860797662</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="Q12" t="n">
-        <v>1757.009860797662</v>
+        <v>1639.837082703323</v>
       </c>
       <c r="R12" t="n">
         <v>1757.009860797662</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>803.2639367364659</v>
+        <v>781.8461154418378</v>
       </c>
       <c r="C13" t="n">
-        <v>630.7022252196908</v>
+        <v>609.2844039250627</v>
       </c>
       <c r="D13" t="n">
-        <v>487.9234978279761</v>
+        <v>609.2844039250627</v>
       </c>
       <c r="E13" t="n">
-        <v>487.9234978279761</v>
+        <v>439.5264001758</v>
       </c>
       <c r="F13" t="n">
-        <v>487.9234978279761</v>
+        <v>399.2635486026514</v>
       </c>
       <c r="G13" t="n">
-        <v>322.3322228538038</v>
+        <v>233.6722736284791</v>
       </c>
       <c r="H13" t="n">
-        <v>182.4300485441783</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="I13" t="n">
         <v>93.77009931885365</v>
@@ -5223,28 +5223,28 @@
         <v>2710.429709221653</v>
       </c>
       <c r="R13" t="n">
-        <v>2710.429709221653</v>
+        <v>2689.011887927025</v>
       </c>
       <c r="S13" t="n">
-        <v>2551.18834051965</v>
+        <v>2529.770519225022</v>
       </c>
       <c r="T13" t="n">
-        <v>2305.308894098105</v>
+        <v>2283.891072803477</v>
       </c>
       <c r="U13" t="n">
-        <v>2026.87589335121</v>
+        <v>2005.458072056582</v>
       </c>
       <c r="V13" t="n">
-        <v>1739.920385221641</v>
+        <v>1718.502563927013</v>
       </c>
       <c r="W13" t="n">
-        <v>1467.893980807932</v>
+        <v>1446.476159513304</v>
       </c>
       <c r="X13" t="n">
-        <v>1222.502226141345</v>
+        <v>1201.084404846717</v>
       </c>
       <c r="Y13" t="n">
-        <v>995.0825554554531</v>
+        <v>973.664734160825</v>
       </c>
     </row>
     <row r="14">
@@ -5254,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2230.862362770219</v>
+        <v>2520.409306699863</v>
       </c>
       <c r="C14" t="n">
-        <v>1792.719889953642</v>
+        <v>2082.266833883286</v>
       </c>
       <c r="D14" t="n">
-        <v>1356.810105128087</v>
+        <v>1646.357049057731</v>
       </c>
       <c r="E14" t="n">
-        <v>923.035360286382</v>
+        <v>1212.582304216026</v>
       </c>
       <c r="F14" t="n">
-        <v>495.1679306955898</v>
+        <v>784.7148746252335</v>
       </c>
       <c r="G14" t="n">
-        <v>93.77009931885365</v>
+        <v>383.3170432484974</v>
       </c>
       <c r="H14" t="n">
-        <v>93.77009931885365</v>
+        <v>94.18688869171365</v>
       </c>
       <c r="I14" t="n">
         <v>93.77009931885365</v>
@@ -5284,19 +5284,19 @@
         <v>1363.37507872995</v>
       </c>
       <c r="L14" t="n">
-        <v>1363.37507872995</v>
+        <v>2438.435044982809</v>
       </c>
       <c r="M14" t="n">
-        <v>1363.37507872995</v>
+        <v>2438.435044982809</v>
       </c>
       <c r="N14" t="n">
-        <v>2164.362573827329</v>
+        <v>2438.435044982809</v>
       </c>
       <c r="O14" t="n">
-        <v>3144.542240397635</v>
+        <v>3418.614711553115</v>
       </c>
       <c r="P14" t="n">
-        <v>3972.852115231031</v>
+        <v>4246.924586386512</v>
       </c>
       <c r="Q14" t="n">
         <v>4519.350901189626</v>
@@ -5308,22 +5308,22 @@
         <v>4688.504965942682</v>
       </c>
       <c r="T14" t="n">
-        <v>4511.285227714287</v>
+        <v>4688.504965942682</v>
       </c>
       <c r="U14" t="n">
-        <v>4252.062925031303</v>
+        <v>4429.282663259699</v>
       </c>
       <c r="V14" t="n">
-        <v>3889.44597496513</v>
+        <v>4066.665713193525</v>
       </c>
       <c r="W14" t="n">
-        <v>3484.590520376163</v>
+        <v>3661.810258604559</v>
       </c>
       <c r="X14" t="n">
-        <v>3065.448056955473</v>
+        <v>3242.66779518387</v>
       </c>
       <c r="Y14" t="n">
-        <v>2657.161933255127</v>
+        <v>2946.70887718477</v>
       </c>
     </row>
     <row r="15">
@@ -5412,13 +5412,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1172.828259930735</v>
+        <v>1053.872519855546</v>
       </c>
       <c r="C16" t="n">
-        <v>1000.26654841396</v>
+        <v>881.3108083387712</v>
       </c>
       <c r="D16" t="n">
-        <v>834.3885556154826</v>
+        <v>715.4328155402939</v>
       </c>
       <c r="E16" t="n">
         <v>664.6305518662199</v>
@@ -5463,25 +5463,25 @@
         <v>2689.011887927025</v>
       </c>
       <c r="S16" t="n">
-        <v>2689.011887927025</v>
+        <v>2529.770519225022</v>
       </c>
       <c r="T16" t="n">
-        <v>2443.132441505481</v>
+        <v>2283.891072803477</v>
       </c>
       <c r="U16" t="n">
-        <v>2164.699440758586</v>
+        <v>2005.458072056582</v>
       </c>
       <c r="V16" t="n">
-        <v>2109.48470841591</v>
+        <v>1718.502563927013</v>
       </c>
       <c r="W16" t="n">
-        <v>1837.458304002201</v>
+        <v>1718.502563927013</v>
       </c>
       <c r="X16" t="n">
-        <v>1592.066549335614</v>
+        <v>1473.110809260425</v>
       </c>
       <c r="Y16" t="n">
-        <v>1364.646878649722</v>
+        <v>1245.691138574533</v>
       </c>
     </row>
     <row r="17">
@@ -5491,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C17" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D17" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E17" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F17" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G17" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004245</v>
       </c>
       <c r="H17" t="n">
         <v>102.6776296436396</v>
@@ -5515,28 +5515,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J17" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K17" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L17" t="n">
-        <v>2011.671098481817</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M17" t="n">
-        <v>2011.671098481817</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N17" t="n">
-        <v>3137.402081918264</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O17" t="n">
-        <v>3738.23335274699</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P17" t="n">
-        <v>4566.543227580387</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q17" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R17" t="n">
         <v>5113.042013538981</v>
@@ -5548,19 +5548,19 @@
         <v>4809.322912595857</v>
       </c>
       <c r="U17" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V17" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W17" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X17" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y17" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="18">
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>952.7568773477108</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C19" t="n">
-        <v>780.1951658309357</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D19" t="n">
-        <v>614.3171730324584</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E19" t="n">
-        <v>444.5591692831957</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F19" t="n">
-        <v>267.852115244952</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G19" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H19" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I19" t="n">
         <v>102.2608402707796</v>
@@ -5700,25 +5700,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S19" t="n">
-        <v>2700.681281130895</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T19" t="n">
-        <v>2454.80183470935</v>
+        <v>2455.944287558408</v>
       </c>
       <c r="U19" t="n">
-        <v>2176.368833962455</v>
+        <v>2177.511286811513</v>
       </c>
       <c r="V19" t="n">
-        <v>1889.413325832886</v>
+        <v>1890.555778681944</v>
       </c>
       <c r="W19" t="n">
-        <v>1617.386921419177</v>
+        <v>1618.529374268236</v>
       </c>
       <c r="X19" t="n">
-        <v>1371.99516675259</v>
+        <v>1373.137619601648</v>
       </c>
       <c r="Y19" t="n">
-        <v>1144.575496066698</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="20">
@@ -5752,28 +5752,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J20" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K20" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L20" t="n">
-        <v>2011.671098481817</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M20" t="n">
-        <v>3168.718933692368</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N20" t="n">
-        <v>4294.449917128814</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O20" t="n">
-        <v>5113.042013538981</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P20" t="n">
-        <v>5113.042013538981</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q20" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R20" t="n">
         <v>5113.04201353898</v>
@@ -5828,13 +5828,13 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I21" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J21" t="n">
-        <v>426.819165236992</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K21" t="n">
-        <v>1107.552685307369</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L21" t="n">
         <v>1107.588885023173</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>811.7546776883914</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C22" t="n">
-        <v>639.1929661716164</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D22" t="n">
-        <v>473.3149733731391</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E22" t="n">
-        <v>303.5569696238763</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F22" t="n">
-        <v>126.8499155856325</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G22" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H22" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I22" t="n">
         <v>102.2608402707796</v>
@@ -5934,28 +5934,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R22" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S22" t="n">
-        <v>2559.679081471576</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T22" t="n">
-        <v>2313.799635050031</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U22" t="n">
-        <v>2035.366634303136</v>
+        <v>2132.904553083697</v>
       </c>
       <c r="V22" t="n">
-        <v>1748.411126173566</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="W22" t="n">
-        <v>1476.384721759858</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X22" t="n">
-        <v>1230.99296709327</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y22" t="n">
-        <v>1003.573296407379</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="23">
@@ -5989,28 +5989,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J23" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K23" t="n">
-        <v>775.0235620688169</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L23" t="n">
-        <v>1850.083528321676</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M23" t="n">
-        <v>3007.131363532227</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N23" t="n">
-        <v>4132.862346968674</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O23" t="n">
-        <v>5113.04201353898</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P23" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q23" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R23" t="n">
         <v>5113.04201353898</v>
@@ -6065,31 +6065,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I24" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J24" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K24" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L24" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M24" t="n">
-        <v>1300.985674363279</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N24" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O24" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P24" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q24" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R24" t="n">
         <v>1765.500601749588</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>970.9960463903949</v>
+        <v>1011.560997133398</v>
       </c>
       <c r="C25" t="n">
-        <v>798.4343348736198</v>
+        <v>838.9992856166232</v>
       </c>
       <c r="D25" t="n">
-        <v>632.5563420751425</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="E25" t="n">
-        <v>462.7983383258798</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F25" t="n">
-        <v>286.091284287636</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G25" t="n">
-        <v>120.5000093134636</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H25" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I25" t="n">
         <v>102.2608402707796</v>
@@ -6171,28 +6171,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R25" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S25" t="n">
-        <v>2718.920450173579</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T25" t="n">
-        <v>2473.041003752034</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U25" t="n">
-        <v>2194.608003005139</v>
+        <v>2235.172953748142</v>
       </c>
       <c r="V25" t="n">
-        <v>1907.65249487557</v>
+        <v>1948.217445618573</v>
       </c>
       <c r="W25" t="n">
-        <v>1635.626090461861</v>
+        <v>1676.191041204865</v>
       </c>
       <c r="X25" t="n">
-        <v>1390.234335795274</v>
+        <v>1430.799286538277</v>
       </c>
       <c r="Y25" t="n">
-        <v>1162.814665109382</v>
+        <v>1203.379615852385</v>
       </c>
     </row>
     <row r="26">
@@ -6229,22 +6229,22 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K26" t="n">
-        <v>102.2608402707796</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L26" t="n">
-        <v>1021.77365348828</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="M26" t="n">
-        <v>2178.821488698831</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="N26" t="n">
-        <v>3304.552472135278</v>
+        <v>3137.402081918264</v>
       </c>
       <c r="O26" t="n">
-        <v>4284.732138705584</v>
+        <v>4117.581748488571</v>
       </c>
       <c r="P26" t="n">
-        <v>5113.04201353898</v>
+        <v>4945.891623321967</v>
       </c>
       <c r="Q26" t="n">
         <v>5113.04201353898</v>
@@ -6302,31 +6302,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I27" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J27" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K27" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L27" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M27" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N27" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O27" t="n">
-        <v>1116.062450089081</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P27" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q27" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R27" t="n">
         <v>1765.500601749588</v>
@@ -6408,28 +6408,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R28" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S28" t="n">
-        <v>2559.679081471576</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T28" t="n">
-        <v>2313.799635050031</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U28" t="n">
-        <v>2035.366634303136</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V28" t="n">
-        <v>2035.366634303136</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="W28" t="n">
-        <v>1845.949044954127</v>
+        <v>1741.922408594799</v>
       </c>
       <c r="X28" t="n">
-        <v>1600.55729028754</v>
+        <v>1496.530653928212</v>
       </c>
       <c r="Y28" t="n">
-        <v>1373.137619601648</v>
+        <v>1269.11098324232</v>
       </c>
     </row>
     <row r="29">
@@ -6539,31 +6539,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I30" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J30" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K30" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L30" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M30" t="n">
-        <v>531.6733301892817</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N30" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O30" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P30" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q30" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R30" t="n">
         <v>1765.500601749588</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>952.7568773477108</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="C31" t="n">
-        <v>780.1951658309357</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D31" t="n">
-        <v>614.3171730324584</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E31" t="n">
-        <v>444.5591692831957</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F31" t="n">
-        <v>267.852115244952</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G31" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H31" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I31" t="n">
         <v>102.2608402707796</v>
@@ -6645,28 +6645,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R31" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S31" t="n">
-        <v>2700.681281130895</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T31" t="n">
-        <v>2454.80183470935</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U31" t="n">
-        <v>2176.368833962455</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V31" t="n">
-        <v>1889.413325832886</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W31" t="n">
-        <v>1617.386921419177</v>
+        <v>1673.387333437352</v>
       </c>
       <c r="X31" t="n">
-        <v>1371.99516675259</v>
+        <v>1427.995578770765</v>
       </c>
       <c r="Y31" t="n">
-        <v>1144.575496066698</v>
+        <v>1200.575908084873</v>
       </c>
     </row>
     <row r="32">
@@ -6700,28 +6700,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J32" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K32" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L32" t="n">
-        <v>2011.671098481817</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M32" t="n">
-        <v>2011.671098481817</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N32" t="n">
-        <v>3137.402081918264</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O32" t="n">
-        <v>4117.581748488571</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P32" t="n">
-        <v>4945.891623321967</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q32" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R32" t="n">
         <v>5113.04201353898</v>
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3955.973997051466</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C33" t="n">
-        <v>3849.517535888108</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D33" t="n">
-        <v>3754.427247034661</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E33" t="n">
-        <v>3660.306832361615</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F33" t="n">
-        <v>3576.922993977777</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G33" t="n">
-        <v>3491.53790424396</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H33" t="n">
-        <v>3449.802252060173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I33" t="n">
-        <v>3475.865925220631</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J33" t="n">
-        <v>3800.424250186843</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K33" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L33" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M33" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N33" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O33" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P33" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q33" t="n">
-        <v>4995.869235444641</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R33" t="n">
-        <v>5113.042013538981</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S33" t="n">
-        <v>5049.586575987364</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T33" t="n">
-        <v>4919.407932317966</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U33" t="n">
-        <v>4743.071385317934</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V33" t="n">
-        <v>4543.953867379933</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W33" t="n">
-        <v>4358.631113113128</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X33" t="n">
-        <v>4203.763677352008</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y33" t="n">
-        <v>4077.277898131229</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="34">
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1181.319000882661</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C34" t="n">
-        <v>1008.757289365886</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D34" t="n">
-        <v>842.8792965674086</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E34" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F34" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G34" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H34" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I34" t="n">
         <v>102.2608402707796</v>
@@ -6897,13 +6897,13 @@
         <v>1748.411126173566</v>
       </c>
       <c r="W34" t="n">
-        <v>1618.529374268236</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X34" t="n">
-        <v>1373.137619601648</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y34" t="n">
-        <v>1373.137619601648</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="35">
@@ -6937,28 +6937,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J35" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K35" t="n">
-        <v>775.0235620688169</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L35" t="n">
-        <v>1850.083528321676</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M35" t="n">
-        <v>3007.131363532227</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N35" t="n">
-        <v>4132.862346968674</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O35" t="n">
-        <v>5113.04201353898</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P35" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q35" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R35" t="n">
         <v>5113.04201353898</v>
@@ -7013,31 +7013,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I36" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J36" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K36" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L36" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M36" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N36" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O36" t="n">
-        <v>1116.062450089081</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P36" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q36" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R36" t="n">
         <v>1765.500601749588</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>952.7568773477108</v>
+        <v>875.8255515988633</v>
       </c>
       <c r="C37" t="n">
-        <v>780.1951658309357</v>
+        <v>703.2638400820882</v>
       </c>
       <c r="D37" t="n">
-        <v>614.3171730324584</v>
+        <v>537.3858472836109</v>
       </c>
       <c r="E37" t="n">
-        <v>444.5591692831957</v>
+        <v>367.6278435343481</v>
       </c>
       <c r="F37" t="n">
-        <v>267.852115244952</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="G37" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="H37" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I37" t="n">
         <v>102.2608402707796</v>
@@ -7122,25 +7122,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S37" t="n">
-        <v>2700.681281130895</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T37" t="n">
-        <v>2454.80183470935</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U37" t="n">
-        <v>2176.368833962455</v>
+        <v>2099.437508213608</v>
       </c>
       <c r="V37" t="n">
-        <v>1889.413325832886</v>
+        <v>1812.482000084038</v>
       </c>
       <c r="W37" t="n">
-        <v>1617.386921419177</v>
+        <v>1540.45559567033</v>
       </c>
       <c r="X37" t="n">
-        <v>1371.99516675259</v>
+        <v>1295.063841003742</v>
       </c>
       <c r="Y37" t="n">
-        <v>1144.575496066698</v>
+        <v>1067.64417031785</v>
       </c>
     </row>
     <row r="38">
@@ -7162,64 +7162,64 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H38" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I38" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J38" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K38" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L38" t="n">
-        <v>2011.671098481817</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M38" t="n">
-        <v>3168.718933692368</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N38" t="n">
-        <v>4294.449917128814</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O38" t="n">
-        <v>5113.04201353898</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P38" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q38" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R38" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S38" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T38" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U38" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V38" t="n">
         <v>4187.483659846699</v>
       </c>
       <c r="W38" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X38" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y38" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="39">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3575.440564248063</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C40" t="n">
-        <v>3402.878852731288</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D40" t="n">
-        <v>3237.000859932811</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E40" t="n">
-        <v>3067.242856183548</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F40" t="n">
-        <v>2890.535802145304</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G40" t="n">
-        <v>2724.944527171132</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H40" t="n">
-        <v>2585.042352861507</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I40" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J40" t="n">
-        <v>2582.962088800872</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K40" t="n">
-        <v>2857.720543372007</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L40" t="n">
-        <v>3275.930425139968</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M40" t="n">
-        <v>3735.414292320881</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N40" t="n">
-        <v>4177.673095478525</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O40" t="n">
-        <v>4597.342344704308</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P40" t="n">
-        <v>4944.849238674649</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q40" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R40" t="n">
-        <v>5113.042013538981</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S40" t="n">
-        <v>5113.042013538981</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T40" t="n">
-        <v>5077.485521609701</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U40" t="n">
-        <v>4799.052520862807</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="V40" t="n">
-        <v>4512.097012733238</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="W40" t="n">
-        <v>4240.070608319529</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X40" t="n">
-        <v>3994.678853652942</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y40" t="n">
-        <v>3767.25918296705</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="41">
@@ -7396,16 +7396,16 @@
         <v>1230.310742413359</v>
       </c>
       <c r="E41" t="n">
-        <v>796.5359975716538</v>
+        <v>923.452149659242</v>
       </c>
       <c r="F41" t="n">
-        <v>784.2980852523735</v>
+        <v>495.5847200684498</v>
       </c>
       <c r="G41" t="n">
-        <v>382.9002538756374</v>
+        <v>94.18688869171365</v>
       </c>
       <c r="H41" t="n">
-        <v>93.77009931885365</v>
+        <v>94.18688869171365</v>
       </c>
       <c r="I41" t="n">
         <v>93.77009931885365</v>
@@ -7420,13 +7420,13 @@
         <v>2438.435044982809</v>
       </c>
       <c r="M41" t="n">
-        <v>2992.672448660725</v>
+        <v>2438.435044982809</v>
       </c>
       <c r="N41" t="n">
-        <v>2992.672448660725</v>
+        <v>2438.435044982809</v>
       </c>
       <c r="O41" t="n">
-        <v>3972.852115231031</v>
+        <v>3144.542240397635</v>
       </c>
       <c r="P41" t="n">
         <v>3972.852115231031</v>
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>962.5053054384693</v>
+        <v>1172.828259930735</v>
       </c>
       <c r="C43" t="n">
-        <v>789.9435939216943</v>
+        <v>1000.26654841396</v>
       </c>
       <c r="D43" t="n">
-        <v>789.9435939216943</v>
+        <v>834.3885556154826</v>
       </c>
       <c r="E43" t="n">
-        <v>620.1855901724316</v>
+        <v>664.6305518662199</v>
       </c>
       <c r="F43" t="n">
-        <v>443.4785361341878</v>
+        <v>487.9234978279761</v>
       </c>
       <c r="G43" t="n">
         <v>322.3322228538038</v>
@@ -7593,28 +7593,28 @@
         <v>2710.429709221653</v>
       </c>
       <c r="R43" t="n">
-        <v>2710.429709221653</v>
+        <v>2689.011887927025</v>
       </c>
       <c r="S43" t="n">
-        <v>2710.429709221653</v>
+        <v>2529.770519225022</v>
       </c>
       <c r="T43" t="n">
-        <v>2464.550262800109</v>
+        <v>2283.891072803477</v>
       </c>
       <c r="U43" t="n">
-        <v>2186.117262053214</v>
+        <v>2005.458072056582</v>
       </c>
       <c r="V43" t="n">
-        <v>1899.161753923644</v>
+        <v>1718.502563927013</v>
       </c>
       <c r="W43" t="n">
-        <v>1627.135349509936</v>
+        <v>1645.639685283214</v>
       </c>
       <c r="X43" t="n">
-        <v>1381.743594843348</v>
+        <v>1400.247930616627</v>
       </c>
       <c r="Y43" t="n">
-        <v>1154.323924157457</v>
+        <v>1172.828259930735</v>
       </c>
     </row>
     <row r="44">
@@ -7651,13 +7651,13 @@
         <v>529.0247867717716</v>
       </c>
       <c r="K44" t="n">
-        <v>529.0247867717716</v>
+        <v>1363.37507872995</v>
       </c>
       <c r="L44" t="n">
-        <v>529.0247867717716</v>
+        <v>2164.362573827329</v>
       </c>
       <c r="M44" t="n">
-        <v>1038.631590390881</v>
+        <v>2164.362573827329</v>
       </c>
       <c r="N44" t="n">
         <v>2164.362573827329</v>
@@ -7681,19 +7681,19 @@
         <v>4384.785864999558</v>
       </c>
       <c r="U44" t="n">
-        <v>4125.563562316574</v>
+        <v>4384.785864999558</v>
       </c>
       <c r="V44" t="n">
-        <v>3762.946612250401</v>
+        <v>4022.168914933384</v>
       </c>
       <c r="W44" t="n">
-        <v>3358.091157661434</v>
+        <v>3617.313460344418</v>
       </c>
       <c r="X44" t="n">
-        <v>2938.948694240745</v>
+        <v>3354.995000885117</v>
       </c>
       <c r="Y44" t="n">
-        <v>2530.662570540399</v>
+        <v>2946.70887718477</v>
       </c>
     </row>
     <row r="45">
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>781.8461154418378</v>
+        <v>944.2661363957848</v>
       </c>
       <c r="C46" t="n">
-        <v>781.8461154418378</v>
+        <v>771.7044248790097</v>
       </c>
       <c r="D46" t="n">
-        <v>781.8461154418378</v>
+        <v>605.8264320805324</v>
       </c>
       <c r="E46" t="n">
-        <v>612.088111692575</v>
+        <v>436.0684283312697</v>
       </c>
       <c r="F46" t="n">
-        <v>435.3810576543312</v>
+        <v>259.361374293026</v>
       </c>
       <c r="G46" t="n">
-        <v>269.7897826801589</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="H46" t="n">
-        <v>129.8876083705334</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="I46" t="n">
         <v>93.77009931885365</v>
@@ -7830,28 +7830,28 @@
         <v>2710.429709221653</v>
       </c>
       <c r="R46" t="n">
-        <v>2689.011887927025</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="S46" t="n">
-        <v>2529.770519225022</v>
+        <v>2692.190540178969</v>
       </c>
       <c r="T46" t="n">
-        <v>2283.891072803477</v>
+        <v>2446.311093757424</v>
       </c>
       <c r="U46" t="n">
-        <v>2005.458072056582</v>
+        <v>2167.878093010529</v>
       </c>
       <c r="V46" t="n">
-        <v>1718.502563927013</v>
+        <v>1880.92258488096</v>
       </c>
       <c r="W46" t="n">
-        <v>1446.476159513304</v>
+        <v>1608.896180467251</v>
       </c>
       <c r="X46" t="n">
-        <v>1201.084404846717</v>
+        <v>1363.504425800664</v>
       </c>
       <c r="Y46" t="n">
-        <v>973.664734160825</v>
+        <v>1136.084755114772</v>
       </c>
     </row>
   </sheetData>
@@ -7978,13 +7978,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
         <v>667.515206607857</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -7993,16 +7993,16 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>667.5152066078568</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>667.5152066078567</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q2" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R2" t="n">
-        <v>88.52591951401018</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8054,16 +8054,16 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>17.17305800913124</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L3" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8075,13 +8075,13 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8145,7 +8145,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645585</v>
       </c>
       <c r="N4" t="n">
         <v>446.7260637956006</v>
@@ -8157,7 +8157,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8291,16 +8291,16 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>667.515206607857</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
-        <v>20.13097499434639</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8391,7 +8391,7 @@
         <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
-        <v>351.0170646165066</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
         <v>169.8916917821538</v>
@@ -8452,10 +8452,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -8464,10 +8464,10 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>585.1784344521124</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>667.515206607857</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="P8" t="n">
         <v>667.515206607857</v>
@@ -8528,31 +8528,31 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>226.6534083847602</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8695,13 +8695,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>809.0782778761404</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>809.0782778761404</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831379</v>
@@ -8765,10 +8765,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -8777,22 +8777,22 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>1172.126241485671</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>507.9139216242374</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8932,13 +8932,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>809.0782778761404</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831379</v>
@@ -8947,7 +8947,7 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q14" t="n">
-        <v>552.0189757157522</v>
+        <v>275.1780957607216</v>
       </c>
       <c r="R14" t="n">
         <v>170.8626916697543</v>
@@ -9163,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
         <v>842.7780726850283</v>
@@ -9175,10 +9175,10 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O17" t="n">
-        <v>606.9002735643703</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P17" t="n">
         <v>836.6766412458549</v>
@@ -9187,7 +9187,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9400,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
         <v>842.7780726850283</v>
@@ -9409,22 +9409,22 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N20" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>826.8607034446131</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9476,16 +9476,16 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L21" t="n">
-        <v>0.03656536949893052</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9637,31 +9637,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N23" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9713,22 +9713,22 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -9737,10 +9737,10 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9877,13 +9877,13 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L26" t="n">
-        <v>928.8008214318188</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
         <v>1137.102003471159</v>
@@ -9895,7 +9895,7 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>168.8387779969835</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -9950,13 +9950,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9968,16 +9968,16 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>655.9981329904112</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10187,22 +10187,22 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>433.7499898166688</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -10211,10 +10211,10 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
         <v>842.7780726850283</v>
@@ -10357,10 +10357,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N32" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831379</v>
@@ -10369,10 +10369,10 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q32" t="n">
-        <v>168.8387779969835</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10585,31 +10585,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10661,13 +10661,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10679,16 +10679,16 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>655.9981329904112</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10822,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
         <v>842.7780726850283</v>
@@ -10831,22 +10831,22 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O38" t="n">
-        <v>826.8607034446122</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11068,16 +11068,16 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>559.8357612908239</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>990.0804712831379</v>
+        <v>713.2395913281071</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q41" t="n">
         <v>552.0189757157522</v>
@@ -11299,16 +11299,16 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>809.0782778761404</v>
       </c>
       <c r="M44" t="n">
-        <v>514.7543470900101</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831379</v>
@@ -23257,10 +23257,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>411.8858435779281</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>411.4732220987967</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23278,7 +23278,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23421,13 +23421,13 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>22.86827275269496</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E13" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>174.9399834978613</v>
+        <v>135.0797604404443</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23436,7 +23436,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23512,10 +23512,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23548,7 +23548,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
-        <v>42.41901400958</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23563,7 +23563,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>111.2039336442347</v>
       </c>
     </row>
     <row r="15">
@@ -23661,7 +23661,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>117.7661826744369</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23703,7 +23703,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23712,10 +23712,10 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>229.4233680290249</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23907,10 +23907,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,10 +23940,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>140.7232059832936</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="20">
@@ -24141,13 +24141,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>139.5921776627262</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24183,13 +24183,13 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>117.7661826744372</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24372,7 +24372,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -24381,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>120.4463752142721</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,16 +24411,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>219.0118993322381</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>102.9863699957346</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24663,7 +24663,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W28" t="n">
-        <v>81.78272691405297</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24840,7 +24840,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24855,10 +24855,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24900,7 +24900,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>216.2362286424012</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25092,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25137,13 +25137,13 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>140.723205983294</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>225.1454739790328</v>
+        <v>139.5921776627261</v>
       </c>
     </row>
     <row r="35">
@@ -25326,13 +25326,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,13 +25362,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>63.43016517136681</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25596,19 +25596,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>208.2197249473419</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>111.423652304583</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25636,19 +25636,19 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>125.6469905667122</v>
       </c>
       <c r="F41" t="n">
-        <v>411.4732220987969</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25785,13 +25785,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -25800,7 +25800,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>44.0005120768504</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25848,7 +25848,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>197.1718905122109</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -25864,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>411.8858435779281</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -25921,7 +25921,7 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -25930,7 +25930,7 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>155.2557639217746</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26025,10 +26025,10 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26040,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
-        <v>52.01701577190844</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>139.5921776627253</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>633833.7024224801</v>
+        <v>633833.7024224802</v>
       </c>
     </row>
     <row r="10">
@@ -26316,19 +26316,19 @@
         <v>375303.123923286</v>
       </c>
       <c r="C2" t="n">
+        <v>375303.1239232859</v>
+      </c>
+      <c r="D2" t="n">
         <v>375303.123923286</v>
       </c>
-      <c r="D2" t="n">
-        <v>375303.1239232859</v>
-      </c>
       <c r="E2" t="n">
-        <v>345850.0296919846</v>
+        <v>345850.0296919845</v>
       </c>
       <c r="F2" t="n">
-        <v>345850.0296919845</v>
+        <v>345850.0296919844</v>
       </c>
       <c r="G2" t="n">
-        <v>368800.3088961467</v>
+        <v>368800.3088961466</v>
       </c>
       <c r="H2" t="n">
         <v>368800.3088961466</v>
@@ -26337,7 +26337,7 @@
         <v>368800.3088961466</v>
       </c>
       <c r="J2" t="n">
-        <v>368800.3088961467</v>
+        <v>368800.3088961465</v>
       </c>
       <c r="K2" t="n">
         <v>368800.3088961466</v>
@@ -26346,7 +26346,7 @@
         <v>368800.3088961466</v>
       </c>
       <c r="M2" t="n">
-        <v>368800.3088961467</v>
+        <v>368800.3088961465</v>
       </c>
       <c r="N2" t="n">
         <v>368800.3088961467</v>
@@ -26355,7 +26355,7 @@
         <v>345850.0296919845</v>
       </c>
       <c r="P2" t="n">
-        <v>345850.0296919846</v>
+        <v>345850.0296919845</v>
       </c>
     </row>
     <row r="3">
@@ -26420,7 +26420,7 @@
         <v>165263.0882595584</v>
       </c>
       <c r="C4" t="n">
-        <v>165263.0882595585</v>
+        <v>165263.0882595584</v>
       </c>
       <c r="D4" t="n">
         <v>165263.0882595584</v>
@@ -26432,10 +26432,10 @@
         <v>76371.62315556087</v>
       </c>
       <c r="G4" t="n">
+        <v>81439.57146904284</v>
+      </c>
+      <c r="H4" t="n">
         <v>81439.57146904283</v>
-      </c>
-      <c r="H4" t="n">
-        <v>81439.57146904284</v>
       </c>
       <c r="I4" t="n">
         <v>81439.57146904283</v>
@@ -26450,10 +26450,10 @@
         <v>81439.57146904283</v>
       </c>
       <c r="M4" t="n">
+        <v>81439.57146904283</v>
+      </c>
+      <c r="N4" t="n">
         <v>81439.57146904284</v>
-      </c>
-      <c r="N4" t="n">
-        <v>81439.57146904283</v>
       </c>
       <c r="O4" t="n">
         <v>76371.62315556087</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-87872.18748207495</v>
+        <v>-87872.18748207499</v>
       </c>
       <c r="C6" t="n">
+        <v>135827.5111019698</v>
+      </c>
+      <c r="D6" t="n">
         <v>135827.5111019699</v>
       </c>
-      <c r="D6" t="n">
-        <v>135827.5111019698</v>
-      </c>
       <c r="E6" t="n">
-        <v>47547.37748234709</v>
+        <v>47442.18786009232</v>
       </c>
       <c r="F6" t="n">
-        <v>198213.1310540949</v>
+        <v>198107.9414318401</v>
       </c>
       <c r="G6" t="n">
-        <v>180552.6896487035</v>
+        <v>180529.4653093207</v>
       </c>
       <c r="H6" t="n">
-        <v>209642.4988213112</v>
+        <v>209619.2744819286</v>
       </c>
       <c r="I6" t="n">
-        <v>209642.4988213113</v>
+        <v>209619.2744819286</v>
       </c>
       <c r="J6" t="n">
-        <v>34991.15010360518</v>
+        <v>34967.92576422242</v>
       </c>
       <c r="K6" t="n">
-        <v>209642.4988213113</v>
+        <v>209619.2744819286</v>
       </c>
       <c r="L6" t="n">
-        <v>209642.4988213113</v>
+        <v>209619.2744819286</v>
       </c>
       <c r="M6" t="n">
-        <v>83891.41048562061</v>
+        <v>83868.18614623789</v>
       </c>
       <c r="N6" t="n">
-        <v>209642.4988213113</v>
+        <v>209619.2744819287</v>
       </c>
       <c r="O6" t="n">
-        <v>198213.1310540948</v>
+        <v>198107.9414318402</v>
       </c>
       <c r="P6" t="n">
-        <v>198213.1310540949</v>
+        <v>198107.9414318402</v>
       </c>
     </row>
   </sheetData>
@@ -27384,13 +27384,13 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>44.75150601404977</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>397.3838530629687</v>
@@ -27399,7 +27399,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27435,7 +27435,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>358.9907805655117</v>
@@ -27444,10 +27444,10 @@
         <v>400</v>
       </c>
       <c r="X2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>187.7088048787645</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27539,7 +27539,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27548,16 +27548,16 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>84.63380825304888</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>138.5031525665292</v>
+        <v>107.2592358276482</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -27615,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>10.77694568710444</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27672,19 +27672,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y5" t="n">
-        <v>400</v>
+        <v>270.9367814358973</v>
       </c>
     </row>
     <row r="6">
@@ -27788,13 +27788,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
-        <v>87.77334973307141</v>
+        <v>84.63380825304846</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27827,7 +27827,7 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>160.7958207444081</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -27858,13 +27858,13 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>53.07022658020554</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>397.3838530629687</v>
@@ -27873,7 +27873,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>217.8665548556918</v>
@@ -27915,10 +27915,10 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.8422500230731</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28031,7 +28031,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28061,10 +28061,10 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>141.6500182959535</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -28076,10 +28076,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>144.1344859240867</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -34698,13 +34698,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
         <v>667.515206607857</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -34713,16 +34713,16 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>667.5152066078568</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>667.5152066078567</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q2" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R2" t="n">
-        <v>88.52591951401018</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34774,16 +34774,16 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>17.17305800913124</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L3" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -34795,13 +34795,13 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34865,19 +34865,19 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645585</v>
       </c>
       <c r="N4" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P4" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35011,16 +35011,16 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>667.515206607857</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
-        <v>20.13097499434639</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35111,7 +35111,7 @@
         <v>423.9083325512945</v>
       </c>
       <c r="P7" t="n">
-        <v>351.0170646165066</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q7" t="n">
         <v>169.8916917821539</v>
@@ -35172,10 +35172,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -35184,10 +35184,10 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>585.1784344521124</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>667.515206607857</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="P8" t="n">
         <v>667.515206607857</v>
@@ -35248,31 +35248,31 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>226.6534083847602</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35415,13 +35415,13 @@
         <v>842.7780726850284</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>809.0782778761404</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>809.0782778761404</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831377</v>
@@ -35485,10 +35485,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -35497,22 +35497,22 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>1172.126241485671</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>507.9139216242374</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35652,13 +35652,13 @@
         <v>842.7780726850284</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>809.0782778761404</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831377</v>
@@ -35667,7 +35667,7 @@
         <v>836.6766412458546</v>
       </c>
       <c r="Q14" t="n">
-        <v>552.0189757157523</v>
+        <v>275.1780957607216</v>
       </c>
       <c r="R14" t="n">
         <v>170.862691669754</v>
@@ -35883,10 +35883,10 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L17" t="n">
         <v>1085.919157831171</v>
@@ -35895,10 +35895,10 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O17" t="n">
-        <v>606.9002735643703</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P17" t="n">
         <v>836.6766412458546</v>
@@ -35907,7 +35907,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L20" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N20" t="n">
-        <v>1137.102003471158</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>826.8607034446131</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,16 +36196,16 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>687.6096162327043</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L21" t="n">
-        <v>0.03656536949893052</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N23" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,22 +36433,22 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -36457,10 +36457,10 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36597,25 +36597,25 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L26" t="n">
-        <v>928.8008214318188</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
         <v>1137.102003471159</v>
       </c>
       <c r="O26" t="n">
-        <v>990.0804712831377</v>
+        <v>990.0804712831382</v>
       </c>
       <c r="P26" t="n">
         <v>836.6766412458546</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>168.8387779969835</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -36670,13 +36670,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -36688,16 +36688,16 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>655.9981329904112</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36907,22 +36907,22 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>433.7499898166688</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -36931,10 +36931,10 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N32" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>990.0804712831382</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P32" t="n">
         <v>836.6766412458546</v>
       </c>
       <c r="Q32" t="n">
-        <v>168.8387779969835</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,10 +37144,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>26.32694258632091</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
         <v>661.3192390158824</v>
@@ -37168,7 +37168,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>546.2009481132072</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R33" t="n">
         <v>118.3563415094341</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,13 +37381,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -37399,16 +37399,16 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>655.9981329904112</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471158</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O38" t="n">
-        <v>826.8607034446122</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37700,13 +37700,13 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K40" t="n">
-        <v>277.5337924960963</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L40" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M40" t="n">
         <v>464.1251183645586</v>
@@ -37715,13 +37715,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O40" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P40" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q40" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37788,16 +37788,16 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>559.8357612908239</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>990.0804712831377</v>
+        <v>713.2395913281071</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q41" t="n">
         <v>552.0189757157523</v>
@@ -38019,16 +38019,16 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>842.7780726850284</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>809.0782778761404</v>
       </c>
       <c r="M44" t="n">
-        <v>514.7543470900101</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831377</v>
